--- a/Tesina/Flights.xlsx
+++ b/Tesina/Flights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\Documents\GitHub\DS_progetto\Tesina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DS\DS_progetto\Tesina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8E22E3-8A1F-4629-A0F0-F124BF5205AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9825EE-0421-4F14-B50D-9F1289E7C383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C469D029-8DFB-45EC-9620-F17F485DD776}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C469D029-8DFB-45EC-9620-F17F485DD776}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="19">
   <si>
     <t>o</t>
   </si>
@@ -89,6 +111,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Malus C</t>
   </si>
 </sst>
 </file>
@@ -626,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD1A129-E7A2-46D5-80F2-C63E4E9FA6CA}">
-  <dimension ref="A1:T706"/>
+  <dimension ref="A1:DX706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +662,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +712,108 @@
       <c r="T1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+    </row>
+    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -697,7 +822,7 @@
       </c>
       <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(1,24)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>3</v>
@@ -723,8 +848,334 @@
       <c r="T2" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2" s="1" t="str">
+        <f>F$1</f>
+        <v>A319</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <f>G1</f>
+        <v>A320</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <f>H1</f>
+        <v>A321</v>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <f>I1</f>
+        <v>E175</v>
+      </c>
+      <c r="Z2" s="1" t="str">
+        <f>J1</f>
+        <v>E190</v>
+      </c>
+      <c r="AA2" s="1" t="str">
+        <f>K1</f>
+        <v>B737</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3" cm="1">
+        <f t="array" ref="AC2:DX7">TRANSPOSE(AC10:AH109)</f>
+        <v>12</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>13</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>14</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>14</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CB2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CC2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CD2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CE2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CF2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CG2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CH2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CI2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CJ2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CK2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CL2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CM2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CN2" s="3">
+        <v>12</v>
+      </c>
+      <c r="CO2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CP2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CQ2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CR2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CS2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CT2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CU2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CV2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CW2" s="3">
+        <v>13</v>
+      </c>
+      <c r="CX2" s="3">
+        <v>13</v>
+      </c>
+      <c r="CY2" s="3">
+        <v>13</v>
+      </c>
+      <c r="CZ2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DA2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DB2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DC2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DD2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DE2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DF2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DG2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DH2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DI2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DJ2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DK2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DL2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DM2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DN2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DO2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DP2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DQ2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>13</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>13</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>13</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>13</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>13</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>13</v>
+      </c>
+      <c r="DX2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -758,8 +1209,308 @@
       <c r="T3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AC3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>10</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>8</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CM3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CN3" s="1">
+        <v>8</v>
+      </c>
+      <c r="CO3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CP3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CQ3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CR3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CS3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CT3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CU3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CV3" s="1">
+        <v>10</v>
+      </c>
+      <c r="CW3" s="1">
+        <v>9</v>
+      </c>
+      <c r="CX3" s="1">
+        <v>9</v>
+      </c>
+      <c r="CY3" s="1">
+        <v>9</v>
+      </c>
+      <c r="CZ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DA3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DB3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DC3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DD3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DE3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DF3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DG3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DH3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DI3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DJ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DK3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DL3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DM3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DN3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DO3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DP3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DQ3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DR3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DS3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DT3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DU3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DV3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DW3" s="1">
+        <v>9</v>
+      </c>
+      <c r="DX3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,8 +1544,332 @@
       <c r="T4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A2,$M$2:$M$8,0),MATCH(B2,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W4" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A2,$M$2:$M$8,0),MATCH(B2,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X4" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A2,$M$2:$M$8,0),MATCH(B2,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A2,$M$2:$M$8,0),MATCH(B2,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z4" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A2,$M$2:$M$8,0),MATCH(B2,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A2,$M$2:$M$8,0),MATCH(B2,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>6</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CR4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CS4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CY4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CZ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DA4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DB4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DC4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DD4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DE4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DF4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DG4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DH4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DI4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DJ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DK4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DL4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DM4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DN4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DO4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DP4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DQ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DR4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DS4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DT4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DU4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DV4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DW4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DX4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,8 +1903,332 @@
       <c r="T5" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V5" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A3,$M$2:$M$8,0),MATCH(B3,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W5" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A3,$M$2:$M$8,0),MATCH(B3,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X5" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A3,$M$2:$M$8,0),MATCH(B3,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A3,$M$2:$M$8,0),MATCH(B3,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z5" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A3,$M$2:$M$8,0),MATCH(B3,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A3,$M$2:$M$8,0),MATCH(B3,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>7</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>8</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CE5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CL5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CM5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>6</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CP5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CR5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CS5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CU5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV5" s="1">
+        <v>8</v>
+      </c>
+      <c r="CW5" s="1">
+        <v>7</v>
+      </c>
+      <c r="CX5" s="1">
+        <v>7</v>
+      </c>
+      <c r="CY5" s="1">
+        <v>7</v>
+      </c>
+      <c r="CZ5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DA5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DB5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DC5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DD5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DE5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DF5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DG5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DH5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DI5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DJ5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DK5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DL5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DM5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DN5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DO5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DP5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DQ5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DR5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DS5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DT5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DU5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DV5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DW5" s="1">
+        <v>7</v>
+      </c>
+      <c r="DX5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +2262,332 @@
       <c r="T6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V6" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A4,$M$2:$M$8,0),MATCH(B4,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W6" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A4,$M$2:$M$8,0),MATCH(B4,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X6" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A4,$M$2:$M$8,0),MATCH(B4,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A4,$M$2:$M$8,0),MATCH(B4,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z6" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A4,$M$2:$M$8,0),MATCH(B4,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A4,$M$2:$M$8,0),MATCH(B4,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>17</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>17</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>15</v>
+      </c>
+      <c r="BZ6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CD6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CJ6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CL6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CM6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CN6" s="1">
+        <v>15</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>17</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>17</v>
+      </c>
+      <c r="CQ6" s="1">
+        <v>17</v>
+      </c>
+      <c r="CR6" s="1">
+        <v>17</v>
+      </c>
+      <c r="CS6" s="1">
+        <v>17</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>17</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>17</v>
+      </c>
+      <c r="CV6" s="1">
+        <v>17</v>
+      </c>
+      <c r="CW6" s="1">
+        <v>16</v>
+      </c>
+      <c r="CX6" s="1">
+        <v>16</v>
+      </c>
+      <c r="CY6" s="1">
+        <v>16</v>
+      </c>
+      <c r="CZ6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DA6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DB6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DC6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DD6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DE6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DF6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DG6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DH6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DI6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DJ6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DK6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DL6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DM6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DN6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DO6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DP6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DQ6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DR6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DS6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DT6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DU6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DV6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DW6" s="1">
+        <v>16</v>
+      </c>
+      <c r="DX6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -898,8 +2621,332 @@
       <c r="T7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A5,$M$2:$M$8,0),MATCH(B5,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W7" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A5,$M$2:$M$8,0),MATCH(B5,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X7" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A5,$M$2:$M$8,0),MATCH(B5,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A5,$M$2:$M$8,0),MATCH(B5,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z7" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A5,$M$2:$M$8,0),MATCH(B5,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A5,$M$2:$M$8,0),MATCH(B5,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BR7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BS7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BT7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BY7" s="1">
+        <v>7</v>
+      </c>
+      <c r="BZ7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CD7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CJ7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CL7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CM7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>9</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>9</v>
+      </c>
+      <c r="CQ7" s="1">
+        <v>9</v>
+      </c>
+      <c r="CR7" s="1">
+        <v>9</v>
+      </c>
+      <c r="CS7" s="1">
+        <v>9</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>9</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>9</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>9</v>
+      </c>
+      <c r="CW7" s="1">
+        <v>8</v>
+      </c>
+      <c r="CX7" s="1">
+        <v>8</v>
+      </c>
+      <c r="CY7" s="1">
+        <v>8</v>
+      </c>
+      <c r="CZ7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DA7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DB7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DC7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DD7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DE7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DF7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DG7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DH7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DI7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DJ7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DK7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DL7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DM7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DN7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DO7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DP7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DQ7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DR7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DS7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DT7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DU7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DV7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DW7" s="1">
+        <v>8</v>
+      </c>
+      <c r="DX7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:128" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -933,8 +2980,32 @@
       <c r="T8" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V8" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A6,$M$2:$M$8,0),MATCH(B6,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W8" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A6,$M$2:$M$8,0),MATCH(B6,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X8" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A6,$M$2:$M$8,0),MATCH(B6,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A6,$M$2:$M$8,0),MATCH(B6,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z8" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A6,$M$2:$M$8,0),MATCH(B6,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A6,$M$2:$M$8,0),MATCH(B6,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -944,8 +3015,32 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V9" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A7,$M$2:$M$8,0),MATCH(B7,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W9" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A7,$M$2:$M$8,0),MATCH(B7,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X9" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A7,$M$2:$M$8,0),MATCH(B7,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y9" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A7,$M$2:$M$8,0),MATCH(B7,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z9" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A7,$M$2:$M$8,0),MATCH(B7,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A7,$M$2:$M$8,0),MATCH(B7,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -955,8 +3050,56 @@
       <c r="C10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A8,$M$2:$M$8,0),MATCH(B8,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W10" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A8,$M$2:$M$8,0),MATCH(B8,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X10" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A8,$M$2:$M$8,0),MATCH(B8,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y10" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A8,$M$2:$M$8,0),MATCH(B8,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z10" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A8,$M$2:$M$8,0),MATCH(B8,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A8,$M$2:$M$8,0),MATCH(B8,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC10" s="1">
+        <f>V4</f>
+        <v>12</v>
+      </c>
+      <c r="AD10" s="1">
+        <f>W4</f>
+        <v>8</v>
+      </c>
+      <c r="AE10" s="1">
+        <f>X4</f>
+        <v>4</v>
+      </c>
+      <c r="AF10" s="1">
+        <f>Y4</f>
+        <v>6</v>
+      </c>
+      <c r="AG10" s="1">
+        <f>Z4</f>
+        <v>15</v>
+      </c>
+      <c r="AH10" s="1">
+        <f>AA4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:128" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,8 +3109,56 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V11" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A9,$M$2:$M$8,0),MATCH(B9,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W11" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A9,$M$2:$M$8,0),MATCH(B9,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X11" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A9,$M$2:$M$8,0),MATCH(B9,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A9,$M$2:$M$8,0),MATCH(B9,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A9,$M$2:$M$8,0),MATCH(B9,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A9,$M$2:$M$8,0),MATCH(B9,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>V5</f>
+        <v>12</v>
+      </c>
+      <c r="AD11" s="1">
+        <f>W5</f>
+        <v>8</v>
+      </c>
+      <c r="AE11" s="1">
+        <f>X5</f>
+        <v>4</v>
+      </c>
+      <c r="AF11" s="1">
+        <f>Y5</f>
+        <v>6</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>Z5</f>
+        <v>15</v>
+      </c>
+      <c r="AH11" s="1">
+        <f>AA5</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -998,8 +3189,56 @@
       <c r="S12" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A10,$M$2:$M$8,0),MATCH(B10,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W12" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A10,$M$2:$M$8,0),MATCH(B10,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X12" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A10,$M$2:$M$8,0),MATCH(B10,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A10,$M$2:$M$8,0),MATCH(B10,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A10,$M$2:$M$8,0),MATCH(B10,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A10,$M$2:$M$8,0),MATCH(B10,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC12" s="1">
+        <f>V6</f>
+        <v>12</v>
+      </c>
+      <c r="AD12" s="1">
+        <f>W6</f>
+        <v>8</v>
+      </c>
+      <c r="AE12" s="1">
+        <f>X6</f>
+        <v>4</v>
+      </c>
+      <c r="AF12" s="1">
+        <f>Y6</f>
+        <v>6</v>
+      </c>
+      <c r="AG12" s="1">
+        <f>Z6</f>
+        <v>15</v>
+      </c>
+      <c r="AH12" s="1">
+        <f>AA6</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:128" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1026,10 +3265,58 @@
         <v>1</v>
       </c>
       <c r="S13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="V13" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A11,$M$2:$M$8,0),MATCH(B11,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W13" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A11,$M$2:$M$8,0),MATCH(B11,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X13" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A11,$M$2:$M$8,0),MATCH(B11,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A11,$M$2:$M$8,0),MATCH(B11,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A11,$M$2:$M$8,0),MATCH(B11,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A11,$M$2:$M$8,0),MATCH(B11,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC13" s="1">
+        <f>V7</f>
+        <v>12</v>
+      </c>
+      <c r="AD13" s="1">
+        <f>W7</f>
+        <v>8</v>
+      </c>
+      <c r="AE13" s="1">
+        <f>X7</f>
+        <v>4</v>
+      </c>
+      <c r="AF13" s="1">
+        <f>Y7</f>
+        <v>6</v>
+      </c>
+      <c r="AG13" s="1">
+        <f>Z7</f>
+        <v>15</v>
+      </c>
+      <c r="AH13" s="1">
+        <f>AA7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +3326,56 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V14" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A12,$M$2:$M$8,0),MATCH(B12,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W14" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A12,$M$2:$M$8,0),MATCH(B12,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X14" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A12,$M$2:$M$8,0),MATCH(B12,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A12,$M$2:$M$8,0),MATCH(B12,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A12,$M$2:$M$8,0),MATCH(B12,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A12,$M$2:$M$8,0),MATCH(B12,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC14" s="1">
+        <f>V8</f>
+        <v>12</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>W8</f>
+        <v>8</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>X8</f>
+        <v>4</v>
+      </c>
+      <c r="AF14" s="1">
+        <f>Y8</f>
+        <v>6</v>
+      </c>
+      <c r="AG14" s="1">
+        <f>Z8</f>
+        <v>15</v>
+      </c>
+      <c r="AH14" s="1">
+        <f>AA8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:128" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1050,8 +3385,56 @@
       <c r="C15" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V15" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A13,$M$2:$M$8,0),MATCH(B13,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W15" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A13,$M$2:$M$8,0),MATCH(B13,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X15" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A13,$M$2:$M$8,0),MATCH(B13,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A13,$M$2:$M$8,0),MATCH(B13,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A13,$M$2:$M$8,0),MATCH(B13,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A13,$M$2:$M$8,0),MATCH(B13,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC15" s="1">
+        <f>V9</f>
+        <v>12</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>W9</f>
+        <v>8</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>X9</f>
+        <v>4</v>
+      </c>
+      <c r="AF15" s="1">
+        <f>Y9</f>
+        <v>6</v>
+      </c>
+      <c r="AG15" s="1">
+        <f>Z9</f>
+        <v>15</v>
+      </c>
+      <c r="AH15" s="1">
+        <f>AA9</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +3444,77 @@
       <c r="C16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A14,$M$2:$M$8,0),MATCH(B14,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W16" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A14,$M$2:$M$8,0),MATCH(B14,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X16" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A14,$M$2:$M$8,0),MATCH(B14,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A14,$M$2:$M$8,0),MATCH(B14,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A14,$M$2:$M$8,0),MATCH(B14,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A14,$M$2:$M$8,0),MATCH(B14,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC16" s="1">
+        <f>V10</f>
+        <v>12</v>
+      </c>
+      <c r="AD16" s="1">
+        <f>W10</f>
+        <v>8</v>
+      </c>
+      <c r="AE16" s="1">
+        <f>X10</f>
+        <v>4</v>
+      </c>
+      <c r="AF16" s="1">
+        <f>Y10</f>
+        <v>6</v>
+      </c>
+      <c r="AG16" s="1">
+        <f>Z10</f>
+        <v>15</v>
+      </c>
+      <c r="AH16" s="1">
+        <f>AA10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +3524,75 @@
       <c r="C17" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M17" s="13"/>
+      <c r="N17" s="11">
+        <v>11</v>
+      </c>
+      <c r="O17" s="11">
+        <v>7</v>
+      </c>
+      <c r="P17" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>5</v>
+      </c>
+      <c r="R17" s="11">
+        <v>14</v>
+      </c>
+      <c r="S17" s="12">
+        <v>6</v>
+      </c>
+      <c r="V17" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A15,$M$2:$M$8,0),MATCH(B15,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W17" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A15,$M$2:$M$8,0),MATCH(B15,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X17" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A15,$M$2:$M$8,0),MATCH(B15,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y17" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A15,$M$2:$M$8,0),MATCH(B15,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A15,$M$2:$M$8,0),MATCH(B15,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A15,$M$2:$M$8,0),MATCH(B15,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC17" s="1">
+        <f>V11</f>
+        <v>12</v>
+      </c>
+      <c r="AD17" s="1">
+        <f>W11</f>
+        <v>8</v>
+      </c>
+      <c r="AE17" s="1">
+        <f>X11</f>
+        <v>4</v>
+      </c>
+      <c r="AF17" s="1">
+        <f>Y11</f>
+        <v>6</v>
+      </c>
+      <c r="AG17" s="1">
+        <f>Z11</f>
+        <v>15</v>
+      </c>
+      <c r="AH17" s="1">
+        <f>AA11</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -1083,8 +3602,56 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V18" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A16,$M$2:$M$8,0),MATCH(B16,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W18" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A16,$M$2:$M$8,0),MATCH(B16,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X18" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A16,$M$2:$M$8,0),MATCH(B16,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A16,$M$2:$M$8,0),MATCH(B16,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A16,$M$2:$M$8,0),MATCH(B16,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A16,$M$2:$M$8,0),MATCH(B16,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC18" s="1">
+        <f>V12</f>
+        <v>13</v>
+      </c>
+      <c r="AD18" s="1">
+        <f>W12</f>
+        <v>9</v>
+      </c>
+      <c r="AE18" s="1">
+        <f>X12</f>
+        <v>5</v>
+      </c>
+      <c r="AF18" s="1">
+        <f>Y12</f>
+        <v>7</v>
+      </c>
+      <c r="AG18" s="1">
+        <f>Z12</f>
+        <v>16</v>
+      </c>
+      <c r="AH18" s="1">
+        <f>AA12</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1094,8 +3661,56 @@
       <c r="C19" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V19" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A17,$M$2:$M$8,0),MATCH(B17,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W19" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A17,$M$2:$M$8,0),MATCH(B17,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X19" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A17,$M$2:$M$8,0),MATCH(B17,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y19" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A17,$M$2:$M$8,0),MATCH(B17,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z19" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A17,$M$2:$M$8,0),MATCH(B17,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA19" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A17,$M$2:$M$8,0),MATCH(B17,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC19" s="1">
+        <f>V13</f>
+        <v>13</v>
+      </c>
+      <c r="AD19" s="1">
+        <f>W13</f>
+        <v>9</v>
+      </c>
+      <c r="AE19" s="1">
+        <f>X13</f>
+        <v>5</v>
+      </c>
+      <c r="AF19" s="1">
+        <f>Y13</f>
+        <v>7</v>
+      </c>
+      <c r="AG19" s="1">
+        <f>Z13</f>
+        <v>16</v>
+      </c>
+      <c r="AH19" s="1">
+        <f>AA13</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1105,8 +3720,56 @@
       <c r="C20" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V20" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A18,$M$2:$M$8,0),MATCH(B18,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W20" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A18,$M$2:$M$8,0),MATCH(B18,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X20" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A18,$M$2:$M$8,0),MATCH(B18,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A18,$M$2:$M$8,0),MATCH(B18,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z20" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A18,$M$2:$M$8,0),MATCH(B18,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A18,$M$2:$M$8,0),MATCH(B18,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC20" s="1">
+        <f>V14</f>
+        <v>13</v>
+      </c>
+      <c r="AD20" s="1">
+        <f>W14</f>
+        <v>9</v>
+      </c>
+      <c r="AE20" s="1">
+        <f>X14</f>
+        <v>5</v>
+      </c>
+      <c r="AF20" s="1">
+        <f>Y14</f>
+        <v>7</v>
+      </c>
+      <c r="AG20" s="1">
+        <f>Z14</f>
+        <v>16</v>
+      </c>
+      <c r="AH20" s="1">
+        <f>AA14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1116,8 +3779,56 @@
       <c r="C21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V21" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A19,$M$2:$M$8,0),MATCH(B19,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W21" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A19,$M$2:$M$8,0),MATCH(B19,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X21" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A19,$M$2:$M$8,0),MATCH(B19,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y21" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A19,$M$2:$M$8,0),MATCH(B19,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z21" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A19,$M$2:$M$8,0),MATCH(B19,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A19,$M$2:$M$8,0),MATCH(B19,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC21" s="1">
+        <f>V15</f>
+        <v>13</v>
+      </c>
+      <c r="AD21" s="1">
+        <f>W15</f>
+        <v>9</v>
+      </c>
+      <c r="AE21" s="1">
+        <f>X15</f>
+        <v>5</v>
+      </c>
+      <c r="AF21" s="1">
+        <f>Y15</f>
+        <v>7</v>
+      </c>
+      <c r="AG21" s="1">
+        <f>Z15</f>
+        <v>16</v>
+      </c>
+      <c r="AH21" s="1">
+        <f>AA15</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +3838,56 @@
       <c r="C22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V22" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A20,$M$2:$M$8,0),MATCH(B20,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W22" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A20,$M$2:$M$8,0),MATCH(B20,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X22" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A20,$M$2:$M$8,0),MATCH(B20,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A20,$M$2:$M$8,0),MATCH(B20,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A20,$M$2:$M$8,0),MATCH(B20,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A20,$M$2:$M$8,0),MATCH(B20,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC22" s="1">
+        <f>V16</f>
+        <v>13</v>
+      </c>
+      <c r="AD22" s="1">
+        <f>W16</f>
+        <v>9</v>
+      </c>
+      <c r="AE22" s="1">
+        <f>X16</f>
+        <v>5</v>
+      </c>
+      <c r="AF22" s="1">
+        <f>Y16</f>
+        <v>7</v>
+      </c>
+      <c r="AG22" s="1">
+        <f>Z16</f>
+        <v>16</v>
+      </c>
+      <c r="AH22" s="1">
+        <f>AA16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1138,8 +3897,56 @@
       <c r="C23" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V23" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A21,$M$2:$M$8,0),MATCH(B21,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W23" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A21,$M$2:$M$8,0),MATCH(B21,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X23" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A21,$M$2:$M$8,0),MATCH(B21,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y23" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A21,$M$2:$M$8,0),MATCH(B21,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z23" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A21,$M$2:$M$8,0),MATCH(B21,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA23" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A21,$M$2:$M$8,0),MATCH(B21,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC23" s="1">
+        <f>V17</f>
+        <v>13</v>
+      </c>
+      <c r="AD23" s="1">
+        <f>W17</f>
+        <v>9</v>
+      </c>
+      <c r="AE23" s="1">
+        <f>X17</f>
+        <v>5</v>
+      </c>
+      <c r="AF23" s="1">
+        <f>Y17</f>
+        <v>7</v>
+      </c>
+      <c r="AG23" s="1">
+        <f>Z17</f>
+        <v>16</v>
+      </c>
+      <c r="AH23" s="1">
+        <f>AA17</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1149,8 +3956,56 @@
       <c r="C24" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V24" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A22,$M$2:$M$8,0),MATCH(B22,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W24" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A22,$M$2:$M$8,0),MATCH(B22,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X24" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A22,$M$2:$M$8,0),MATCH(B22,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y24" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A22,$M$2:$M$8,0),MATCH(B22,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z24" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A22,$M$2:$M$8,0),MATCH(B22,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA24" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A22,$M$2:$M$8,0),MATCH(B22,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC24" s="1">
+        <f>V18</f>
+        <v>13</v>
+      </c>
+      <c r="AD24" s="1">
+        <f>W18</f>
+        <v>9</v>
+      </c>
+      <c r="AE24" s="1">
+        <f>X18</f>
+        <v>5</v>
+      </c>
+      <c r="AF24" s="1">
+        <f>Y18</f>
+        <v>7</v>
+      </c>
+      <c r="AG24" s="1">
+        <f>Z18</f>
+        <v>16</v>
+      </c>
+      <c r="AH24" s="1">
+        <f>AA18</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +4015,56 @@
       <c r="C25" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V25" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A23,$M$2:$M$8,0),MATCH(B23,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W25" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A23,$M$2:$M$8,0),MATCH(B23,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X25" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A23,$M$2:$M$8,0),MATCH(B23,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y25" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A23,$M$2:$M$8,0),MATCH(B23,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z25" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A23,$M$2:$M$8,0),MATCH(B23,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA25" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A23,$M$2:$M$8,0),MATCH(B23,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC25" s="1">
+        <f>V19</f>
+        <v>13</v>
+      </c>
+      <c r="AD25" s="1">
+        <f>W19</f>
+        <v>9</v>
+      </c>
+      <c r="AE25" s="1">
+        <f>X19</f>
+        <v>5</v>
+      </c>
+      <c r="AF25" s="1">
+        <f>Y19</f>
+        <v>7</v>
+      </c>
+      <c r="AG25" s="1">
+        <f>Z19</f>
+        <v>16</v>
+      </c>
+      <c r="AH25" s="1">
+        <f>AA19</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1171,8 +4074,56 @@
       <c r="C26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V26" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A24,$M$2:$M$8,0),MATCH(B24,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W26" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A24,$M$2:$M$8,0),MATCH(B24,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X26" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A24,$M$2:$M$8,0),MATCH(B24,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y26" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A24,$M$2:$M$8,0),MATCH(B24,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z26" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A24,$M$2:$M$8,0),MATCH(B24,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A24,$M$2:$M$8,0),MATCH(B24,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC26" s="1">
+        <f>V20</f>
+        <v>14</v>
+      </c>
+      <c r="AD26" s="1">
+        <f>W20</f>
+        <v>10</v>
+      </c>
+      <c r="AE26" s="1">
+        <f>X20</f>
+        <v>6</v>
+      </c>
+      <c r="AF26" s="1">
+        <f>Y20</f>
+        <v>8</v>
+      </c>
+      <c r="AG26" s="1">
+        <f>Z20</f>
+        <v>17</v>
+      </c>
+      <c r="AH26" s="1">
+        <f>AA20</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1182,8 +4133,56 @@
       <c r="C27" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V27" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A25,$M$2:$M$8,0),MATCH(B25,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W27" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A25,$M$2:$M$8,0),MATCH(B25,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X27" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A25,$M$2:$M$8,0),MATCH(B25,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y27" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A25,$M$2:$M$8,0),MATCH(B25,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z27" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A25,$M$2:$M$8,0),MATCH(B25,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA27" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A25,$M$2:$M$8,0),MATCH(B25,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC27" s="1">
+        <f>V21</f>
+        <v>14</v>
+      </c>
+      <c r="AD27" s="1">
+        <f>W21</f>
+        <v>10</v>
+      </c>
+      <c r="AE27" s="1">
+        <f>X21</f>
+        <v>6</v>
+      </c>
+      <c r="AF27" s="1">
+        <f>Y21</f>
+        <v>8</v>
+      </c>
+      <c r="AG27" s="1">
+        <f>Z21</f>
+        <v>17</v>
+      </c>
+      <c r="AH27" s="1">
+        <f>AA21</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1193,8 +4192,56 @@
       <c r="C28" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V28" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A26,$M$2:$M$8,0),MATCH(B26,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W28" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A26,$M$2:$M$8,0),MATCH(B26,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X28" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A26,$M$2:$M$8,0),MATCH(B26,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A26,$M$2:$M$8,0),MATCH(B26,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z28" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A26,$M$2:$M$8,0),MATCH(B26,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA28" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A26,$M$2:$M$8,0),MATCH(B26,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC28" s="1">
+        <f>V22</f>
+        <v>14</v>
+      </c>
+      <c r="AD28" s="1">
+        <f>W22</f>
+        <v>10</v>
+      </c>
+      <c r="AE28" s="1">
+        <f>X22</f>
+        <v>6</v>
+      </c>
+      <c r="AF28" s="1">
+        <f>Y22</f>
+        <v>8</v>
+      </c>
+      <c r="AG28" s="1">
+        <f>Z22</f>
+        <v>17</v>
+      </c>
+      <c r="AH28" s="1">
+        <f>AA22</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1204,8 +4251,56 @@
       <c r="C29" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V29" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A27,$M$2:$M$8,0),MATCH(B27,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W29" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A27,$M$2:$M$8,0),MATCH(B27,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X29" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A27,$M$2:$M$8,0),MATCH(B27,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y29" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A27,$M$2:$M$8,0),MATCH(B27,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z29" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A27,$M$2:$M$8,0),MATCH(B27,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA29" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A27,$M$2:$M$8,0),MATCH(B27,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC29" s="1">
+        <f>V23</f>
+        <v>14</v>
+      </c>
+      <c r="AD29" s="1">
+        <f>W23</f>
+        <v>10</v>
+      </c>
+      <c r="AE29" s="1">
+        <f>X23</f>
+        <v>6</v>
+      </c>
+      <c r="AF29" s="1">
+        <f>Y23</f>
+        <v>8</v>
+      </c>
+      <c r="AG29" s="1">
+        <f>Z23</f>
+        <v>17</v>
+      </c>
+      <c r="AH29" s="1">
+        <f>AA23</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1215,8 +4310,56 @@
       <c r="C30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V30" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A28,$M$2:$M$8,0),MATCH(B28,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W30" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A28,$M$2:$M$8,0),MATCH(B28,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X30" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A28,$M$2:$M$8,0),MATCH(B28,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y30" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A28,$M$2:$M$8,0),MATCH(B28,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z30" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A28,$M$2:$M$8,0),MATCH(B28,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA30" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A28,$M$2:$M$8,0),MATCH(B28,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC30" s="1">
+        <f>V24</f>
+        <v>14</v>
+      </c>
+      <c r="AD30" s="1">
+        <f>W24</f>
+        <v>10</v>
+      </c>
+      <c r="AE30" s="1">
+        <f>X24</f>
+        <v>6</v>
+      </c>
+      <c r="AF30" s="1">
+        <f>Y24</f>
+        <v>8</v>
+      </c>
+      <c r="AG30" s="1">
+        <f>Z24</f>
+        <v>17</v>
+      </c>
+      <c r="AH30" s="1">
+        <f>AA24</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1226,8 +4369,56 @@
       <c r="C31" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V31" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A29,$M$2:$M$8,0),MATCH(B29,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W31" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A29,$M$2:$M$8,0),MATCH(B29,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X31" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A29,$M$2:$M$8,0),MATCH(B29,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y31" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A29,$M$2:$M$8,0),MATCH(B29,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z31" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A29,$M$2:$M$8,0),MATCH(B29,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA31" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A29,$M$2:$M$8,0),MATCH(B29,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC31" s="1">
+        <f>V25</f>
+        <v>14</v>
+      </c>
+      <c r="AD31" s="1">
+        <f>W25</f>
+        <v>10</v>
+      </c>
+      <c r="AE31" s="1">
+        <f>X25</f>
+        <v>6</v>
+      </c>
+      <c r="AF31" s="1">
+        <f>Y25</f>
+        <v>8</v>
+      </c>
+      <c r="AG31" s="1">
+        <f>Z25</f>
+        <v>17</v>
+      </c>
+      <c r="AH31" s="1">
+        <f>AA25</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1237,8 +4428,56 @@
       <c r="C32" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V32" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A30,$M$2:$M$8,0),MATCH(B30,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W32" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A30,$M$2:$M$8,0),MATCH(B30,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X32" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A30,$M$2:$M$8,0),MATCH(B30,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y32" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A30,$M$2:$M$8,0),MATCH(B30,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z32" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A30,$M$2:$M$8,0),MATCH(B30,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA32" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A30,$M$2:$M$8,0),MATCH(B30,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC32" s="1">
+        <f>V26</f>
+        <v>14</v>
+      </c>
+      <c r="AD32" s="1">
+        <f>W26</f>
+        <v>10</v>
+      </c>
+      <c r="AE32" s="1">
+        <f>X26</f>
+        <v>6</v>
+      </c>
+      <c r="AF32" s="1">
+        <f>Y26</f>
+        <v>8</v>
+      </c>
+      <c r="AG32" s="1">
+        <f>Z26</f>
+        <v>17</v>
+      </c>
+      <c r="AH32" s="1">
+        <f>AA26</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1248,8 +4487,56 @@
       <c r="C33" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V33" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A31,$M$2:$M$8,0),MATCH(B31,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W33" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A31,$M$2:$M$8,0),MATCH(B31,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X33" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A31,$M$2:$M$8,0),MATCH(B31,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y33" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A31,$M$2:$M$8,0),MATCH(B31,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z33" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A31,$M$2:$M$8,0),MATCH(B31,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA33" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A31,$M$2:$M$8,0),MATCH(B31,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC33" s="1">
+        <f>V27</f>
+        <v>14</v>
+      </c>
+      <c r="AD33" s="1">
+        <f>W27</f>
+        <v>10</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>X27</f>
+        <v>6</v>
+      </c>
+      <c r="AF33" s="1">
+        <f>Y27</f>
+        <v>8</v>
+      </c>
+      <c r="AG33" s="1">
+        <f>Z27</f>
+        <v>17</v>
+      </c>
+      <c r="AH33" s="1">
+        <f>AA27</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1259,8 +4546,56 @@
       <c r="C34" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V34" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A32,$M$2:$M$8,0),MATCH(B32,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W34" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A32,$M$2:$M$8,0),MATCH(B32,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X34" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A32,$M$2:$M$8,0),MATCH(B32,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y34" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A32,$M$2:$M$8,0),MATCH(B32,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z34" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A32,$M$2:$M$8,0),MATCH(B32,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA34" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A32,$M$2:$M$8,0),MATCH(B32,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC34" s="1">
+        <f>V28</f>
+        <v>12</v>
+      </c>
+      <c r="AD34" s="1">
+        <f>W28</f>
+        <v>8</v>
+      </c>
+      <c r="AE34" s="1">
+        <f>X28</f>
+        <v>4</v>
+      </c>
+      <c r="AF34" s="1">
+        <f>Y28</f>
+        <v>6</v>
+      </c>
+      <c r="AG34" s="1">
+        <f>Z28</f>
+        <v>15</v>
+      </c>
+      <c r="AH34" s="1">
+        <f>AA28</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1270,8 +4605,56 @@
       <c r="C35" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V35" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A33,$M$2:$M$8,0),MATCH(B33,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W35" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A33,$M$2:$M$8,0),MATCH(B33,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X35" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A33,$M$2:$M$8,0),MATCH(B33,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y35" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A33,$M$2:$M$8,0),MATCH(B33,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z35" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A33,$M$2:$M$8,0),MATCH(B33,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA35" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A33,$M$2:$M$8,0),MATCH(B33,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC35" s="1">
+        <f>V29</f>
+        <v>12</v>
+      </c>
+      <c r="AD35" s="1">
+        <f>W29</f>
+        <v>8</v>
+      </c>
+      <c r="AE35" s="1">
+        <f>X29</f>
+        <v>4</v>
+      </c>
+      <c r="AF35" s="1">
+        <f>Y29</f>
+        <v>6</v>
+      </c>
+      <c r="AG35" s="1">
+        <f>Z29</f>
+        <v>15</v>
+      </c>
+      <c r="AH35" s="1">
+        <f>AA29</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1281,8 +4664,56 @@
       <c r="C36" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V36" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A34,$M$2:$M$8,0),MATCH(B34,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W36" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A34,$M$2:$M$8,0),MATCH(B34,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X36" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A34,$M$2:$M$8,0),MATCH(B34,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y36" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A34,$M$2:$M$8,0),MATCH(B34,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z36" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A34,$M$2:$M$8,0),MATCH(B34,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA36" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A34,$M$2:$M$8,0),MATCH(B34,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC36" s="1">
+        <f>V30</f>
+        <v>12</v>
+      </c>
+      <c r="AD36" s="1">
+        <f>W30</f>
+        <v>8</v>
+      </c>
+      <c r="AE36" s="1">
+        <f>X30</f>
+        <v>4</v>
+      </c>
+      <c r="AF36" s="1">
+        <f>Y30</f>
+        <v>6</v>
+      </c>
+      <c r="AG36" s="1">
+        <f>Z30</f>
+        <v>15</v>
+      </c>
+      <c r="AH36" s="1">
+        <f>AA30</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1292,8 +4723,56 @@
       <c r="C37" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V37" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A35,$M$2:$M$8,0),MATCH(B35,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W37" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A35,$M$2:$M$8,0),MATCH(B35,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X37" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A35,$M$2:$M$8,0),MATCH(B35,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y37" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A35,$M$2:$M$8,0),MATCH(B35,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z37" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A35,$M$2:$M$8,0),MATCH(B35,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA37" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A35,$M$2:$M$8,0),MATCH(B35,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC37" s="1">
+        <f>V31</f>
+        <v>12</v>
+      </c>
+      <c r="AD37" s="1">
+        <f>W31</f>
+        <v>8</v>
+      </c>
+      <c r="AE37" s="1">
+        <f>X31</f>
+        <v>4</v>
+      </c>
+      <c r="AF37" s="1">
+        <f>Y31</f>
+        <v>6</v>
+      </c>
+      <c r="AG37" s="1">
+        <f>Z31</f>
+        <v>15</v>
+      </c>
+      <c r="AH37" s="1">
+        <f>AA31</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -1303,8 +4782,56 @@
       <c r="C38" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V38" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A36,$M$2:$M$8,0),MATCH(B36,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W38" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A36,$M$2:$M$8,0),MATCH(B36,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X38" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A36,$M$2:$M$8,0),MATCH(B36,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y38" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A36,$M$2:$M$8,0),MATCH(B36,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z38" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A36,$M$2:$M$8,0),MATCH(B36,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA38" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A36,$M$2:$M$8,0),MATCH(B36,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC38" s="1">
+        <f>V32</f>
+        <v>12</v>
+      </c>
+      <c r="AD38" s="1">
+        <f>W32</f>
+        <v>8</v>
+      </c>
+      <c r="AE38" s="1">
+        <f>X32</f>
+        <v>4</v>
+      </c>
+      <c r="AF38" s="1">
+        <f>Y32</f>
+        <v>6</v>
+      </c>
+      <c r="AG38" s="1">
+        <f>Z32</f>
+        <v>15</v>
+      </c>
+      <c r="AH38" s="1">
+        <f>AA32</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1314,8 +4841,56 @@
       <c r="C39" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V39" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A37,$M$2:$M$8,0),MATCH(B37,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W39" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A37,$M$2:$M$8,0),MATCH(B37,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X39" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A37,$M$2:$M$8,0),MATCH(B37,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y39" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A37,$M$2:$M$8,0),MATCH(B37,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z39" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A37,$M$2:$M$8,0),MATCH(B37,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA39" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A37,$M$2:$M$8,0),MATCH(B37,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC39" s="1">
+        <f>V33</f>
+        <v>12</v>
+      </c>
+      <c r="AD39" s="1">
+        <f>W33</f>
+        <v>8</v>
+      </c>
+      <c r="AE39" s="1">
+        <f>X33</f>
+        <v>4</v>
+      </c>
+      <c r="AF39" s="1">
+        <f>Y33</f>
+        <v>6</v>
+      </c>
+      <c r="AG39" s="1">
+        <f>Z33</f>
+        <v>15</v>
+      </c>
+      <c r="AH39" s="1">
+        <f>AA33</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -1325,8 +4900,56 @@
       <c r="C40" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V40" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A38,$M$2:$M$8,0),MATCH(B38,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W40" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A38,$M$2:$M$8,0),MATCH(B38,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X40" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A38,$M$2:$M$8,0),MATCH(B38,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y40" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A38,$M$2:$M$8,0),MATCH(B38,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z40" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A38,$M$2:$M$8,0),MATCH(B38,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA40" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A38,$M$2:$M$8,0),MATCH(B38,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC40" s="1">
+        <f>V34</f>
+        <v>12</v>
+      </c>
+      <c r="AD40" s="1">
+        <f>W34</f>
+        <v>8</v>
+      </c>
+      <c r="AE40" s="1">
+        <f>X34</f>
+        <v>4</v>
+      </c>
+      <c r="AF40" s="1">
+        <f>Y34</f>
+        <v>6</v>
+      </c>
+      <c r="AG40" s="1">
+        <f>Z34</f>
+        <v>15</v>
+      </c>
+      <c r="AH40" s="1">
+        <f>AA34</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
@@ -1336,8 +4959,56 @@
       <c r="C41" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V41" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A39,$M$2:$M$8,0),MATCH(B39,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W41" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A39,$M$2:$M$8,0),MATCH(B39,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X41" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A39,$M$2:$M$8,0),MATCH(B39,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y41" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A39,$M$2:$M$8,0),MATCH(B39,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z41" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A39,$M$2:$M$8,0),MATCH(B39,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA41" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A39,$M$2:$M$8,0),MATCH(B39,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC41" s="1">
+        <f>V35</f>
+        <v>12</v>
+      </c>
+      <c r="AD41" s="1">
+        <f>W35</f>
+        <v>8</v>
+      </c>
+      <c r="AE41" s="1">
+        <f>X35</f>
+        <v>4</v>
+      </c>
+      <c r="AF41" s="1">
+        <f>Y35</f>
+        <v>6</v>
+      </c>
+      <c r="AG41" s="1">
+        <f>Z35</f>
+        <v>15</v>
+      </c>
+      <c r="AH41" s="1">
+        <f>AA35</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1347,8 +5018,56 @@
       <c r="C42" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V42" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A40,$M$2:$M$8,0),MATCH(B40,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W42" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A40,$M$2:$M$8,0),MATCH(B40,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X42" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A40,$M$2:$M$8,0),MATCH(B40,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y42" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A40,$M$2:$M$8,0),MATCH(B40,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z42" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A40,$M$2:$M$8,0),MATCH(B40,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA42" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A40,$M$2:$M$8,0),MATCH(B40,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC42" s="1">
+        <f>V36</f>
+        <v>12</v>
+      </c>
+      <c r="AD42" s="1">
+        <f>W36</f>
+        <v>8</v>
+      </c>
+      <c r="AE42" s="1">
+        <f>X36</f>
+        <v>4</v>
+      </c>
+      <c r="AF42" s="1">
+        <f>Y36</f>
+        <v>6</v>
+      </c>
+      <c r="AG42" s="1">
+        <f>Z36</f>
+        <v>15</v>
+      </c>
+      <c r="AH42" s="1">
+        <f>AA36</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1358,8 +5077,56 @@
       <c r="C43" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V43" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A41,$M$2:$M$8,0),MATCH(B41,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W43" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A41,$M$2:$M$8,0),MATCH(B41,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X43" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A41,$M$2:$M$8,0),MATCH(B41,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y43" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A41,$M$2:$M$8,0),MATCH(B41,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z43" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A41,$M$2:$M$8,0),MATCH(B41,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA43" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A41,$M$2:$M$8,0),MATCH(B41,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC43" s="1">
+        <f>V37</f>
+        <v>12</v>
+      </c>
+      <c r="AD43" s="1">
+        <f>W37</f>
+        <v>8</v>
+      </c>
+      <c r="AE43" s="1">
+        <f>X37</f>
+        <v>4</v>
+      </c>
+      <c r="AF43" s="1">
+        <f>Y37</f>
+        <v>6</v>
+      </c>
+      <c r="AG43" s="1">
+        <f>Z37</f>
+        <v>15</v>
+      </c>
+      <c r="AH43" s="1">
+        <f>AA37</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1369,8 +5136,56 @@
       <c r="C44" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V44" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A42,$M$2:$M$8,0),MATCH(B42,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W44" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A42,$M$2:$M$8,0),MATCH(B42,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X44" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A42,$M$2:$M$8,0),MATCH(B42,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y44" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A42,$M$2:$M$8,0),MATCH(B42,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z44" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A42,$M$2:$M$8,0),MATCH(B42,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA44" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A42,$M$2:$M$8,0),MATCH(B42,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC44" s="1">
+        <f>V38</f>
+        <v>12</v>
+      </c>
+      <c r="AD44" s="1">
+        <f>W38</f>
+        <v>8</v>
+      </c>
+      <c r="AE44" s="1">
+        <f>X38</f>
+        <v>4</v>
+      </c>
+      <c r="AF44" s="1">
+        <f>Y38</f>
+        <v>6</v>
+      </c>
+      <c r="AG44" s="1">
+        <f>Z38</f>
+        <v>15</v>
+      </c>
+      <c r="AH44" s="1">
+        <f>AA38</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1380,8 +5195,56 @@
       <c r="C45" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V45" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A43,$M$2:$M$8,0),MATCH(B43,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W45" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A43,$M$2:$M$8,0),MATCH(B43,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X45" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A43,$M$2:$M$8,0),MATCH(B43,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y45" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A43,$M$2:$M$8,0),MATCH(B43,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z45" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A43,$M$2:$M$8,0),MATCH(B43,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA45" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A43,$M$2:$M$8,0),MATCH(B43,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC45" s="1">
+        <f>V39</f>
+        <v>12</v>
+      </c>
+      <c r="AD45" s="1">
+        <f>W39</f>
+        <v>8</v>
+      </c>
+      <c r="AE45" s="1">
+        <f>X39</f>
+        <v>4</v>
+      </c>
+      <c r="AF45" s="1">
+        <f>Y39</f>
+        <v>6</v>
+      </c>
+      <c r="AG45" s="1">
+        <f>Z39</f>
+        <v>15</v>
+      </c>
+      <c r="AH45" s="1">
+        <f>AA39</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -1391,8 +5254,56 @@
       <c r="C46" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V46" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A44,$M$2:$M$8,0),MATCH(B44,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W46" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A44,$M$2:$M$8,0),MATCH(B44,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X46" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A44,$M$2:$M$8,0),MATCH(B44,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y46" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A44,$M$2:$M$8,0),MATCH(B44,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z46" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A44,$M$2:$M$8,0),MATCH(B44,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA46" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A44,$M$2:$M$8,0),MATCH(B44,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC46" s="1">
+        <f>V40</f>
+        <v>12</v>
+      </c>
+      <c r="AD46" s="1">
+        <f>W40</f>
+        <v>8</v>
+      </c>
+      <c r="AE46" s="1">
+        <f>X40</f>
+        <v>4</v>
+      </c>
+      <c r="AF46" s="1">
+        <f>Y40</f>
+        <v>6</v>
+      </c>
+      <c r="AG46" s="1">
+        <f>Z40</f>
+        <v>15</v>
+      </c>
+      <c r="AH46" s="1">
+        <f>AA40</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -1402,8 +5313,56 @@
       <c r="C47" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V47" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A45,$M$2:$M$8,0),MATCH(B45,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W47" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A45,$M$2:$M$8,0),MATCH(B45,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X47" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A45,$M$2:$M$8,0),MATCH(B45,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y47" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A45,$M$2:$M$8,0),MATCH(B45,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z47" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A45,$M$2:$M$8,0),MATCH(B45,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA47" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A45,$M$2:$M$8,0),MATCH(B45,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC47" s="1">
+        <f>V41</f>
+        <v>12</v>
+      </c>
+      <c r="AD47" s="1">
+        <f>W41</f>
+        <v>8</v>
+      </c>
+      <c r="AE47" s="1">
+        <f>X41</f>
+        <v>4</v>
+      </c>
+      <c r="AF47" s="1">
+        <f>Y41</f>
+        <v>6</v>
+      </c>
+      <c r="AG47" s="1">
+        <f>Z41</f>
+        <v>15</v>
+      </c>
+      <c r="AH47" s="1">
+        <f>AA41</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -1413,8 +5372,56 @@
       <c r="C48" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V48" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A46,$M$2:$M$8,0),MATCH(B46,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W48" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A46,$M$2:$M$8,0),MATCH(B46,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X48" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A46,$M$2:$M$8,0),MATCH(B46,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y48" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A46,$M$2:$M$8,0),MATCH(B46,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z48" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A46,$M$2:$M$8,0),MATCH(B46,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA48" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A46,$M$2:$M$8,0),MATCH(B46,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC48" s="1">
+        <f>V42</f>
+        <v>12</v>
+      </c>
+      <c r="AD48" s="1">
+        <f>W42</f>
+        <v>8</v>
+      </c>
+      <c r="AE48" s="1">
+        <f>X42</f>
+        <v>4</v>
+      </c>
+      <c r="AF48" s="1">
+        <f>Y42</f>
+        <v>6</v>
+      </c>
+      <c r="AG48" s="1">
+        <f>Z42</f>
+        <v>15</v>
+      </c>
+      <c r="AH48" s="1">
+        <f>AA42</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -1424,8 +5431,56 @@
       <c r="C49" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V49" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A47,$M$2:$M$8,0),MATCH(B47,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W49" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A47,$M$2:$M$8,0),MATCH(B47,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X49" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A47,$M$2:$M$8,0),MATCH(B47,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y49" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A47,$M$2:$M$8,0),MATCH(B47,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z49" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A47,$M$2:$M$8,0),MATCH(B47,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA49" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A47,$M$2:$M$8,0),MATCH(B47,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC49" s="1">
+        <f>V43</f>
+        <v>12</v>
+      </c>
+      <c r="AD49" s="1">
+        <f>W43</f>
+        <v>8</v>
+      </c>
+      <c r="AE49" s="1">
+        <f>X43</f>
+        <v>4</v>
+      </c>
+      <c r="AF49" s="1">
+        <f>Y43</f>
+        <v>6</v>
+      </c>
+      <c r="AG49" s="1">
+        <f>Z43</f>
+        <v>15</v>
+      </c>
+      <c r="AH49" s="1">
+        <f>AA43</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -1435,8 +5490,56 @@
       <c r="C50" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V50" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A48,$M$2:$M$8,0),MATCH(B48,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W50" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A48,$M$2:$M$8,0),MATCH(B48,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X50" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A48,$M$2:$M$8,0),MATCH(B48,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y50" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A48,$M$2:$M$8,0),MATCH(B48,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z50" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A48,$M$2:$M$8,0),MATCH(B48,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA50" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A48,$M$2:$M$8,0),MATCH(B48,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC50" s="1">
+        <f>V44</f>
+        <v>12</v>
+      </c>
+      <c r="AD50" s="1">
+        <f>W44</f>
+        <v>8</v>
+      </c>
+      <c r="AE50" s="1">
+        <f>X44</f>
+        <v>4</v>
+      </c>
+      <c r="AF50" s="1">
+        <f>Y44</f>
+        <v>6</v>
+      </c>
+      <c r="AG50" s="1">
+        <f>Z44</f>
+        <v>15</v>
+      </c>
+      <c r="AH50" s="1">
+        <f>AA44</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -1446,8 +5549,56 @@
       <c r="C51" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V51" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A49,$M$2:$M$8,0),MATCH(B49,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W51" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A49,$M$2:$M$8,0),MATCH(B49,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X51" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A49,$M$2:$M$8,0),MATCH(B49,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y51" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A49,$M$2:$M$8,0),MATCH(B49,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z51" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A49,$M$2:$M$8,0),MATCH(B49,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA51" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A49,$M$2:$M$8,0),MATCH(B49,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC51" s="1">
+        <f>V45</f>
+        <v>12</v>
+      </c>
+      <c r="AD51" s="1">
+        <f>W45</f>
+        <v>8</v>
+      </c>
+      <c r="AE51" s="1">
+        <f>X45</f>
+        <v>4</v>
+      </c>
+      <c r="AF51" s="1">
+        <f>Y45</f>
+        <v>6</v>
+      </c>
+      <c r="AG51" s="1">
+        <f>Z45</f>
+        <v>15</v>
+      </c>
+      <c r="AH51" s="1">
+        <f>AA45</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -1457,8 +5608,56 @@
       <c r="C52" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V52" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A50,$M$2:$M$8,0),MATCH(B50,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W52" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A50,$M$2:$M$8,0),MATCH(B50,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X52" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A50,$M$2:$M$8,0),MATCH(B50,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y52" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A50,$M$2:$M$8,0),MATCH(B50,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z52" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A50,$M$2:$M$8,0),MATCH(B50,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA52" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A50,$M$2:$M$8,0),MATCH(B50,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC52" s="1">
+        <f>V46</f>
+        <v>12</v>
+      </c>
+      <c r="AD52" s="1">
+        <f>W46</f>
+        <v>8</v>
+      </c>
+      <c r="AE52" s="1">
+        <f>X46</f>
+        <v>4</v>
+      </c>
+      <c r="AF52" s="1">
+        <f>Y46</f>
+        <v>6</v>
+      </c>
+      <c r="AG52" s="1">
+        <f>Z46</f>
+        <v>15</v>
+      </c>
+      <c r="AH52" s="1">
+        <f>AA46</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -1468,8 +5667,56 @@
       <c r="C53" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V53" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A51,$M$2:$M$8,0),MATCH(B51,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W53" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A51,$M$2:$M$8,0),MATCH(B51,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X53" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A51,$M$2:$M$8,0),MATCH(B51,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y53" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A51,$M$2:$M$8,0),MATCH(B51,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z53" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A51,$M$2:$M$8,0),MATCH(B51,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA53" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A51,$M$2:$M$8,0),MATCH(B51,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC53" s="1">
+        <f>V47</f>
+        <v>12</v>
+      </c>
+      <c r="AD53" s="1">
+        <f>W47</f>
+        <v>8</v>
+      </c>
+      <c r="AE53" s="1">
+        <f>X47</f>
+        <v>4</v>
+      </c>
+      <c r="AF53" s="1">
+        <f>Y47</f>
+        <v>6</v>
+      </c>
+      <c r="AG53" s="1">
+        <f>Z47</f>
+        <v>15</v>
+      </c>
+      <c r="AH53" s="1">
+        <f>AA47</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -1479,8 +5726,56 @@
       <c r="C54" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V54" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A52,$M$2:$M$8,0),MATCH(B52,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W54" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A52,$M$2:$M$8,0),MATCH(B52,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X54" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A52,$M$2:$M$8,0),MATCH(B52,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y54" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A52,$M$2:$M$8,0),MATCH(B52,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z54" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A52,$M$2:$M$8,0),MATCH(B52,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA54" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A52,$M$2:$M$8,0),MATCH(B52,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC54" s="1">
+        <f>V48</f>
+        <v>12</v>
+      </c>
+      <c r="AD54" s="1">
+        <f>W48</f>
+        <v>8</v>
+      </c>
+      <c r="AE54" s="1">
+        <f>X48</f>
+        <v>4</v>
+      </c>
+      <c r="AF54" s="1">
+        <f>Y48</f>
+        <v>6</v>
+      </c>
+      <c r="AG54" s="1">
+        <f>Z48</f>
+        <v>15</v>
+      </c>
+      <c r="AH54" s="1">
+        <f>AA48</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -1490,8 +5785,56 @@
       <c r="C55" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V55" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A53,$M$2:$M$8,0),MATCH(B53,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W55" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A53,$M$2:$M$8,0),MATCH(B53,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X55" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A53,$M$2:$M$8,0),MATCH(B53,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y55" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A53,$M$2:$M$8,0),MATCH(B53,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z55" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A53,$M$2:$M$8,0),MATCH(B53,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA55" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A53,$M$2:$M$8,0),MATCH(B53,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC55" s="1">
+        <f>V49</f>
+        <v>12</v>
+      </c>
+      <c r="AD55" s="1">
+        <f>W49</f>
+        <v>8</v>
+      </c>
+      <c r="AE55" s="1">
+        <f>X49</f>
+        <v>4</v>
+      </c>
+      <c r="AF55" s="1">
+        <f>Y49</f>
+        <v>6</v>
+      </c>
+      <c r="AG55" s="1">
+        <f>Z49</f>
+        <v>15</v>
+      </c>
+      <c r="AH55" s="1">
+        <f>AA49</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
@@ -1501,8 +5844,56 @@
       <c r="C56" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V56" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A54,$M$2:$M$8,0),MATCH(B54,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W56" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A54,$M$2:$M$8,0),MATCH(B54,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X56" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A54,$M$2:$M$8,0),MATCH(B54,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y56" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A54,$M$2:$M$8,0),MATCH(B54,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z56" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A54,$M$2:$M$8,0),MATCH(B54,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA56" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A54,$M$2:$M$8,0),MATCH(B54,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC56" s="1">
+        <f>V50</f>
+        <v>12</v>
+      </c>
+      <c r="AD56" s="1">
+        <f>W50</f>
+        <v>8</v>
+      </c>
+      <c r="AE56" s="1">
+        <f>X50</f>
+        <v>4</v>
+      </c>
+      <c r="AF56" s="1">
+        <f>Y50</f>
+        <v>6</v>
+      </c>
+      <c r="AG56" s="1">
+        <f>Z50</f>
+        <v>15</v>
+      </c>
+      <c r="AH56" s="1">
+        <f>AA50</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>9</v>
       </c>
@@ -1512,8 +5903,56 @@
       <c r="C57" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V57" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A55,$M$2:$M$8,0),MATCH(B55,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W57" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A55,$M$2:$M$8,0),MATCH(B55,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X57" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A55,$M$2:$M$8,0),MATCH(B55,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y57" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A55,$M$2:$M$8,0),MATCH(B55,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z57" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A55,$M$2:$M$8,0),MATCH(B55,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA57" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A55,$M$2:$M$8,0),MATCH(B55,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC57" s="1">
+        <f>V51</f>
+        <v>12</v>
+      </c>
+      <c r="AD57" s="1">
+        <f>W51</f>
+        <v>8</v>
+      </c>
+      <c r="AE57" s="1">
+        <f>X51</f>
+        <v>4</v>
+      </c>
+      <c r="AF57" s="1">
+        <f>Y51</f>
+        <v>6</v>
+      </c>
+      <c r="AG57" s="1">
+        <f>Z51</f>
+        <v>15</v>
+      </c>
+      <c r="AH57" s="1">
+        <f>AA51</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
@@ -1523,8 +5962,56 @@
       <c r="C58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V58" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A56,$M$2:$M$8,0),MATCH(B56,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W58" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A56,$M$2:$M$8,0),MATCH(B56,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X58" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A56,$M$2:$M$8,0),MATCH(B56,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y58" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A56,$M$2:$M$8,0),MATCH(B56,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z58" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A56,$M$2:$M$8,0),MATCH(B56,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA58" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A56,$M$2:$M$8,0),MATCH(B56,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC58" s="1">
+        <f>V52</f>
+        <v>12</v>
+      </c>
+      <c r="AD58" s="1">
+        <f>W52</f>
+        <v>8</v>
+      </c>
+      <c r="AE58" s="1">
+        <f>X52</f>
+        <v>4</v>
+      </c>
+      <c r="AF58" s="1">
+        <f>Y52</f>
+        <v>6</v>
+      </c>
+      <c r="AG58" s="1">
+        <f>Z52</f>
+        <v>15</v>
+      </c>
+      <c r="AH58" s="1">
+        <f>AA52</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -1534,8 +6021,56 @@
       <c r="C59" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V59" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A57,$M$2:$M$8,0),MATCH(B57,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W59" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A57,$M$2:$M$8,0),MATCH(B57,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X59" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A57,$M$2:$M$8,0),MATCH(B57,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y59" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A57,$M$2:$M$8,0),MATCH(B57,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z59" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A57,$M$2:$M$8,0),MATCH(B57,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA59" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A57,$M$2:$M$8,0),MATCH(B57,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC59" s="1">
+        <f>V53</f>
+        <v>12</v>
+      </c>
+      <c r="AD59" s="1">
+        <f>W53</f>
+        <v>8</v>
+      </c>
+      <c r="AE59" s="1">
+        <f>X53</f>
+        <v>4</v>
+      </c>
+      <c r="AF59" s="1">
+        <f>Y53</f>
+        <v>6</v>
+      </c>
+      <c r="AG59" s="1">
+        <f>Z53</f>
+        <v>15</v>
+      </c>
+      <c r="AH59" s="1">
+        <f>AA53</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
@@ -1545,8 +6080,56 @@
       <c r="C60" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V60" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A58,$M$2:$M$8,0),MATCH(B58,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W60" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A58,$M$2:$M$8,0),MATCH(B58,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X60" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A58,$M$2:$M$8,0),MATCH(B58,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y60" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A58,$M$2:$M$8,0),MATCH(B58,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z60" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A58,$M$2:$M$8,0),MATCH(B58,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA60" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A58,$M$2:$M$8,0),MATCH(B58,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC60" s="1">
+        <f>V54</f>
+        <v>12</v>
+      </c>
+      <c r="AD60" s="1">
+        <f>W54</f>
+        <v>8</v>
+      </c>
+      <c r="AE60" s="1">
+        <f>X54</f>
+        <v>4</v>
+      </c>
+      <c r="AF60" s="1">
+        <f>Y54</f>
+        <v>6</v>
+      </c>
+      <c r="AG60" s="1">
+        <f>Z54</f>
+        <v>15</v>
+      </c>
+      <c r="AH60" s="1">
+        <f>AA54</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
@@ -1556,8 +6139,56 @@
       <c r="C61" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V61" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A59,$M$2:$M$8,0),MATCH(B59,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W61" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A59,$M$2:$M$8,0),MATCH(B59,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X61" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A59,$M$2:$M$8,0),MATCH(B59,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y61" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A59,$M$2:$M$8,0),MATCH(B59,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z61" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A59,$M$2:$M$8,0),MATCH(B59,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA61" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A59,$M$2:$M$8,0),MATCH(B59,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC61" s="1">
+        <f>V55</f>
+        <v>12</v>
+      </c>
+      <c r="AD61" s="1">
+        <f>W55</f>
+        <v>8</v>
+      </c>
+      <c r="AE61" s="1">
+        <f>X55</f>
+        <v>4</v>
+      </c>
+      <c r="AF61" s="1">
+        <f>Y55</f>
+        <v>6</v>
+      </c>
+      <c r="AG61" s="1">
+        <f>Z55</f>
+        <v>15</v>
+      </c>
+      <c r="AH61" s="1">
+        <f>AA55</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1567,8 +6198,56 @@
       <c r="C62" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V62" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A60,$M$2:$M$8,0),MATCH(B60,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W62" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A60,$M$2:$M$8,0),MATCH(B60,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X62" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A60,$M$2:$M$8,0),MATCH(B60,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y62" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A60,$M$2:$M$8,0),MATCH(B60,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z62" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A60,$M$2:$M$8,0),MATCH(B60,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA62" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A60,$M$2:$M$8,0),MATCH(B60,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC62" s="1">
+        <f>V56</f>
+        <v>12</v>
+      </c>
+      <c r="AD62" s="1">
+        <f>W56</f>
+        <v>8</v>
+      </c>
+      <c r="AE62" s="1">
+        <f>X56</f>
+        <v>4</v>
+      </c>
+      <c r="AF62" s="1">
+        <f>Y56</f>
+        <v>6</v>
+      </c>
+      <c r="AG62" s="1">
+        <f>Z56</f>
+        <v>15</v>
+      </c>
+      <c r="AH62" s="1">
+        <f>AA56</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
@@ -1578,8 +6257,56 @@
       <c r="C63" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V63" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A61,$M$2:$M$8,0),MATCH(B61,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W63" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A61,$M$2:$M$8,0),MATCH(B61,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X63" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A61,$M$2:$M$8,0),MATCH(B61,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y63" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A61,$M$2:$M$8,0),MATCH(B61,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z63" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A61,$M$2:$M$8,0),MATCH(B61,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA63" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A61,$M$2:$M$8,0),MATCH(B61,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC63" s="1">
+        <f>V57</f>
+        <v>12</v>
+      </c>
+      <c r="AD63" s="1">
+        <f>W57</f>
+        <v>8</v>
+      </c>
+      <c r="AE63" s="1">
+        <f>X57</f>
+        <v>4</v>
+      </c>
+      <c r="AF63" s="1">
+        <f>Y57</f>
+        <v>6</v>
+      </c>
+      <c r="AG63" s="1">
+        <f>Z57</f>
+        <v>15</v>
+      </c>
+      <c r="AH63" s="1">
+        <f>AA57</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -1589,8 +6316,56 @@
       <c r="C64" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V64" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A62,$M$2:$M$8,0),MATCH(B62,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W64" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A62,$M$2:$M$8,0),MATCH(B62,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X64" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A62,$M$2:$M$8,0),MATCH(B62,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y64" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A62,$M$2:$M$8,0),MATCH(B62,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z64" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A62,$M$2:$M$8,0),MATCH(B62,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA64" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A62,$M$2:$M$8,0),MATCH(B62,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC64" s="1">
+        <f>V58</f>
+        <v>12</v>
+      </c>
+      <c r="AD64" s="1">
+        <f>W58</f>
+        <v>8</v>
+      </c>
+      <c r="AE64" s="1">
+        <f>X58</f>
+        <v>4</v>
+      </c>
+      <c r="AF64" s="1">
+        <f>Y58</f>
+        <v>6</v>
+      </c>
+      <c r="AG64" s="1">
+        <f>Z58</f>
+        <v>15</v>
+      </c>
+      <c r="AH64" s="1">
+        <f>AA58</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
@@ -1600,8 +6375,56 @@
       <c r="C65" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V65" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A63,$M$2:$M$8,0),MATCH(B63,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W65" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A63,$M$2:$M$8,0),MATCH(B63,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X65" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A63,$M$2:$M$8,0),MATCH(B63,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y65" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A63,$M$2:$M$8,0),MATCH(B63,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z65" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A63,$M$2:$M$8,0),MATCH(B63,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA65" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A63,$M$2:$M$8,0),MATCH(B63,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC65" s="1">
+        <f>V59</f>
+        <v>12</v>
+      </c>
+      <c r="AD65" s="1">
+        <f>W59</f>
+        <v>8</v>
+      </c>
+      <c r="AE65" s="1">
+        <f>X59</f>
+        <v>4</v>
+      </c>
+      <c r="AF65" s="1">
+        <f>Y59</f>
+        <v>6</v>
+      </c>
+      <c r="AG65" s="1">
+        <f>Z59</f>
+        <v>15</v>
+      </c>
+      <c r="AH65" s="1">
+        <f>AA59</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>6</v>
       </c>
@@ -1611,8 +6434,56 @@
       <c r="C66" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V66" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A64,$M$2:$M$8,0),MATCH(B64,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W66" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A64,$M$2:$M$8,0),MATCH(B64,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X66" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A64,$M$2:$M$8,0),MATCH(B64,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y66" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A64,$M$2:$M$8,0),MATCH(B64,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z66" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A64,$M$2:$M$8,0),MATCH(B64,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA66" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A64,$M$2:$M$8,0),MATCH(B64,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC66" s="1">
+        <f>V60</f>
+        <v>12</v>
+      </c>
+      <c r="AD66" s="1">
+        <f>W60</f>
+        <v>8</v>
+      </c>
+      <c r="AE66" s="1">
+        <f>X60</f>
+        <v>4</v>
+      </c>
+      <c r="AF66" s="1">
+        <f>Y60</f>
+        <v>6</v>
+      </c>
+      <c r="AG66" s="1">
+        <f>Z60</f>
+        <v>15</v>
+      </c>
+      <c r="AH66" s="1">
+        <f>AA60</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>6</v>
       </c>
@@ -1622,8 +6493,56 @@
       <c r="C67" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V67" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A65,$M$2:$M$8,0),MATCH(B65,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>12</v>
+      </c>
+      <c r="W67" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A65,$M$2:$M$8,0),MATCH(B65,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="X67" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A65,$M$2:$M$8,0),MATCH(B65,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Y67" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A65,$M$2:$M$8,0),MATCH(B65,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Z67" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A65,$M$2:$M$8,0),MATCH(B65,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>15</v>
+      </c>
+      <c r="AA67" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A65,$M$2:$M$8,0),MATCH(B65,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="AC67" s="1">
+        <f>V61</f>
+        <v>12</v>
+      </c>
+      <c r="AD67" s="1">
+        <f>W61</f>
+        <v>8</v>
+      </c>
+      <c r="AE67" s="1">
+        <f>X61</f>
+        <v>4</v>
+      </c>
+      <c r="AF67" s="1">
+        <f>Y61</f>
+        <v>6</v>
+      </c>
+      <c r="AG67" s="1">
+        <f>Z61</f>
+        <v>15</v>
+      </c>
+      <c r="AH67" s="1">
+        <f>AA61</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>6</v>
       </c>
@@ -1633,8 +6552,56 @@
       <c r="C68" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V68" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A66,$M$2:$M$8,0),MATCH(B66,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W68" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A66,$M$2:$M$8,0),MATCH(B66,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X68" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A66,$M$2:$M$8,0),MATCH(B66,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y68" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A66,$M$2:$M$8,0),MATCH(B66,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z68" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A66,$M$2:$M$8,0),MATCH(B66,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA68" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A66,$M$2:$M$8,0),MATCH(B66,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC68" s="1">
+        <f>V62</f>
+        <v>12</v>
+      </c>
+      <c r="AD68" s="1">
+        <f>W62</f>
+        <v>8</v>
+      </c>
+      <c r="AE68" s="1">
+        <f>X62</f>
+        <v>4</v>
+      </c>
+      <c r="AF68" s="1">
+        <f>Y62</f>
+        <v>6</v>
+      </c>
+      <c r="AG68" s="1">
+        <f>Z62</f>
+        <v>15</v>
+      </c>
+      <c r="AH68" s="1">
+        <f>AA62</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>6</v>
       </c>
@@ -1644,8 +6611,56 @@
       <c r="C69" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V69" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A67,$M$2:$M$8,0),MATCH(B67,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W69" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A67,$M$2:$M$8,0),MATCH(B67,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X69" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A67,$M$2:$M$8,0),MATCH(B67,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y69" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A67,$M$2:$M$8,0),MATCH(B67,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z69" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A67,$M$2:$M$8,0),MATCH(B67,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA69" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A67,$M$2:$M$8,0),MATCH(B67,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC69" s="1">
+        <f>V63</f>
+        <v>12</v>
+      </c>
+      <c r="AD69" s="1">
+        <f>W63</f>
+        <v>8</v>
+      </c>
+      <c r="AE69" s="1">
+        <f>X63</f>
+        <v>4</v>
+      </c>
+      <c r="AF69" s="1">
+        <f>Y63</f>
+        <v>6</v>
+      </c>
+      <c r="AG69" s="1">
+        <f>Z63</f>
+        <v>15</v>
+      </c>
+      <c r="AH69" s="1">
+        <f>AA63</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
@@ -1655,8 +6670,56 @@
       <c r="C70" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V70" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A68,$M$2:$M$8,0),MATCH(B68,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W70" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A68,$M$2:$M$8,0),MATCH(B68,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X70" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A68,$M$2:$M$8,0),MATCH(B68,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y70" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A68,$M$2:$M$8,0),MATCH(B68,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z70" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A68,$M$2:$M$8,0),MATCH(B68,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA70" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A68,$M$2:$M$8,0),MATCH(B68,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC70" s="1">
+        <f>V64</f>
+        <v>12</v>
+      </c>
+      <c r="AD70" s="1">
+        <f>W64</f>
+        <v>8</v>
+      </c>
+      <c r="AE70" s="1">
+        <f>X64</f>
+        <v>4</v>
+      </c>
+      <c r="AF70" s="1">
+        <f>Y64</f>
+        <v>6</v>
+      </c>
+      <c r="AG70" s="1">
+        <f>Z64</f>
+        <v>15</v>
+      </c>
+      <c r="AH70" s="1">
+        <f>AA64</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -1666,8 +6729,56 @@
       <c r="C71" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V71" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A69,$M$2:$M$8,0),MATCH(B69,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W71" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A69,$M$2:$M$8,0),MATCH(B69,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X71" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A69,$M$2:$M$8,0),MATCH(B69,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y71" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A69,$M$2:$M$8,0),MATCH(B69,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z71" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A69,$M$2:$M$8,0),MATCH(B69,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA71" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A69,$M$2:$M$8,0),MATCH(B69,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC71" s="1">
+        <f>V65</f>
+        <v>12</v>
+      </c>
+      <c r="AD71" s="1">
+        <f>W65</f>
+        <v>8</v>
+      </c>
+      <c r="AE71" s="1">
+        <f>X65</f>
+        <v>4</v>
+      </c>
+      <c r="AF71" s="1">
+        <f>Y65</f>
+        <v>6</v>
+      </c>
+      <c r="AG71" s="1">
+        <f>Z65</f>
+        <v>15</v>
+      </c>
+      <c r="AH71" s="1">
+        <f>AA65</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
@@ -1677,8 +6788,56 @@
       <c r="C72" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V72" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A70,$M$2:$M$8,0),MATCH(B70,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W72" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A70,$M$2:$M$8,0),MATCH(B70,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X72" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A70,$M$2:$M$8,0),MATCH(B70,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y72" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A70,$M$2:$M$8,0),MATCH(B70,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z72" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A70,$M$2:$M$8,0),MATCH(B70,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA72" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A70,$M$2:$M$8,0),MATCH(B70,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC72" s="1">
+        <f>V66</f>
+        <v>12</v>
+      </c>
+      <c r="AD72" s="1">
+        <f>W66</f>
+        <v>8</v>
+      </c>
+      <c r="AE72" s="1">
+        <f>X66</f>
+        <v>4</v>
+      </c>
+      <c r="AF72" s="1">
+        <f>Y66</f>
+        <v>6</v>
+      </c>
+      <c r="AG72" s="1">
+        <f>Z66</f>
+        <v>15</v>
+      </c>
+      <c r="AH72" s="1">
+        <f>AA66</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>8</v>
       </c>
@@ -1688,8 +6847,56 @@
       <c r="C73" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V73" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A71,$M$2:$M$8,0),MATCH(B71,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W73" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A71,$M$2:$M$8,0),MATCH(B71,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X73" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A71,$M$2:$M$8,0),MATCH(B71,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y73" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A71,$M$2:$M$8,0),MATCH(B71,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z73" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A71,$M$2:$M$8,0),MATCH(B71,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA73" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A71,$M$2:$M$8,0),MATCH(B71,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC73" s="1">
+        <f>V67</f>
+        <v>12</v>
+      </c>
+      <c r="AD73" s="1">
+        <f>W67</f>
+        <v>8</v>
+      </c>
+      <c r="AE73" s="1">
+        <f>X67</f>
+        <v>4</v>
+      </c>
+      <c r="AF73" s="1">
+        <f>Y67</f>
+        <v>6</v>
+      </c>
+      <c r="AG73" s="1">
+        <f>Z67</f>
+        <v>15</v>
+      </c>
+      <c r="AH73" s="1">
+        <f>AA67</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>6</v>
       </c>
@@ -1699,8 +6906,56 @@
       <c r="C74" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V74" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A72,$M$2:$M$8,0),MATCH(B72,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W74" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A72,$M$2:$M$8,0),MATCH(B72,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X74" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A72,$M$2:$M$8,0),MATCH(B72,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y74" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A72,$M$2:$M$8,0),MATCH(B72,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z74" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A72,$M$2:$M$8,0),MATCH(B72,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA74" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A72,$M$2:$M$8,0),MATCH(B72,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC74" s="1">
+        <f>V68</f>
+        <v>14</v>
+      </c>
+      <c r="AD74" s="1">
+        <f>W68</f>
+        <v>10</v>
+      </c>
+      <c r="AE74" s="1">
+        <f>X68</f>
+        <v>6</v>
+      </c>
+      <c r="AF74" s="1">
+        <f>Y68</f>
+        <v>8</v>
+      </c>
+      <c r="AG74" s="1">
+        <f>Z68</f>
+        <v>17</v>
+      </c>
+      <c r="AH74" s="1">
+        <f>AA68</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>6</v>
       </c>
@@ -1710,8 +6965,56 @@
       <c r="C75" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V75" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A73,$M$2:$M$8,0),MATCH(B73,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>14</v>
+      </c>
+      <c r="W75" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A73,$M$2:$M$8,0),MATCH(B73,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>10</v>
+      </c>
+      <c r="X75" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A73,$M$2:$M$8,0),MATCH(B73,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>6</v>
+      </c>
+      <c r="Y75" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A73,$M$2:$M$8,0),MATCH(B73,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="Z75" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A73,$M$2:$M$8,0),MATCH(B73,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>17</v>
+      </c>
+      <c r="AA75" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A73,$M$2:$M$8,0),MATCH(B73,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="AC75" s="1">
+        <f>V69</f>
+        <v>14</v>
+      </c>
+      <c r="AD75" s="1">
+        <f>W69</f>
+        <v>10</v>
+      </c>
+      <c r="AE75" s="1">
+        <f>X69</f>
+        <v>6</v>
+      </c>
+      <c r="AF75" s="1">
+        <f>Y69</f>
+        <v>8</v>
+      </c>
+      <c r="AG75" s="1">
+        <f>Z69</f>
+        <v>17</v>
+      </c>
+      <c r="AH75" s="1">
+        <f>AA69</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>6</v>
       </c>
@@ -1721,8 +7024,56 @@
       <c r="C76" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V76" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A74,$M$2:$M$8,0),MATCH(B74,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W76" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A74,$M$2:$M$8,0),MATCH(B74,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X76" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A74,$M$2:$M$8,0),MATCH(B74,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y76" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A74,$M$2:$M$8,0),MATCH(B74,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z76" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A74,$M$2:$M$8,0),MATCH(B74,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA76" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A74,$M$2:$M$8,0),MATCH(B74,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC76" s="1">
+        <f>V70</f>
+        <v>14</v>
+      </c>
+      <c r="AD76" s="1">
+        <f>W70</f>
+        <v>10</v>
+      </c>
+      <c r="AE76" s="1">
+        <f>X70</f>
+        <v>6</v>
+      </c>
+      <c r="AF76" s="1">
+        <f>Y70</f>
+        <v>8</v>
+      </c>
+      <c r="AG76" s="1">
+        <f>Z70</f>
+        <v>17</v>
+      </c>
+      <c r="AH76" s="1">
+        <f>AA70</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>6</v>
       </c>
@@ -1732,8 +7083,56 @@
       <c r="C77" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V77" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A75,$M$2:$M$8,0),MATCH(B75,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W77" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A75,$M$2:$M$8,0),MATCH(B75,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X77" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A75,$M$2:$M$8,0),MATCH(B75,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y77" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A75,$M$2:$M$8,0),MATCH(B75,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z77" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A75,$M$2:$M$8,0),MATCH(B75,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA77" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A75,$M$2:$M$8,0),MATCH(B75,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC77" s="1">
+        <f>V71</f>
+        <v>14</v>
+      </c>
+      <c r="AD77" s="1">
+        <f>W71</f>
+        <v>10</v>
+      </c>
+      <c r="AE77" s="1">
+        <f>X71</f>
+        <v>6</v>
+      </c>
+      <c r="AF77" s="1">
+        <f>Y71</f>
+        <v>8</v>
+      </c>
+      <c r="AG77" s="1">
+        <f>Z71</f>
+        <v>17</v>
+      </c>
+      <c r="AH77" s="1">
+        <f>AA71</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>9</v>
       </c>
@@ -1743,8 +7142,56 @@
       <c r="C78" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V78" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A76,$M$2:$M$8,0),MATCH(B76,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W78" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A76,$M$2:$M$8,0),MATCH(B76,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X78" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A76,$M$2:$M$8,0),MATCH(B76,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y78" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A76,$M$2:$M$8,0),MATCH(B76,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z78" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A76,$M$2:$M$8,0),MATCH(B76,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA78" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A76,$M$2:$M$8,0),MATCH(B76,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC78" s="1">
+        <f>V72</f>
+        <v>14</v>
+      </c>
+      <c r="AD78" s="1">
+        <f>W72</f>
+        <v>10</v>
+      </c>
+      <c r="AE78" s="1">
+        <f>X72</f>
+        <v>6</v>
+      </c>
+      <c r="AF78" s="1">
+        <f>Y72</f>
+        <v>8</v>
+      </c>
+      <c r="AG78" s="1">
+        <f>Z72</f>
+        <v>17</v>
+      </c>
+      <c r="AH78" s="1">
+        <f>AA72</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>9</v>
       </c>
@@ -1754,8 +7201,56 @@
       <c r="C79" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V79" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A77,$M$2:$M$8,0),MATCH(B77,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W79" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A77,$M$2:$M$8,0),MATCH(B77,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X79" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A77,$M$2:$M$8,0),MATCH(B77,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y79" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A77,$M$2:$M$8,0),MATCH(B77,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z79" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A77,$M$2:$M$8,0),MATCH(B77,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA79" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A77,$M$2:$M$8,0),MATCH(B77,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC79" s="1">
+        <f>V73</f>
+        <v>14</v>
+      </c>
+      <c r="AD79" s="1">
+        <f>W73</f>
+        <v>10</v>
+      </c>
+      <c r="AE79" s="1">
+        <f>X73</f>
+        <v>6</v>
+      </c>
+      <c r="AF79" s="1">
+        <f>Y73</f>
+        <v>8</v>
+      </c>
+      <c r="AG79" s="1">
+        <f>Z73</f>
+        <v>17</v>
+      </c>
+      <c r="AH79" s="1">
+        <f>AA73</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>9</v>
       </c>
@@ -1765,8 +7260,56 @@
       <c r="C80" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V80" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A78,$M$2:$M$8,0),MATCH(B78,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W80" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A78,$M$2:$M$8,0),MATCH(B78,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X80" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A78,$M$2:$M$8,0),MATCH(B78,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y80" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A78,$M$2:$M$8,0),MATCH(B78,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z80" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A78,$M$2:$M$8,0),MATCH(B78,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA80" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A78,$M$2:$M$8,0),MATCH(B78,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC80" s="1">
+        <f>V74</f>
+        <v>14</v>
+      </c>
+      <c r="AD80" s="1">
+        <f>W74</f>
+        <v>10</v>
+      </c>
+      <c r="AE80" s="1">
+        <f>X74</f>
+        <v>6</v>
+      </c>
+      <c r="AF80" s="1">
+        <f>Y74</f>
+        <v>8</v>
+      </c>
+      <c r="AG80" s="1">
+        <f>Z74</f>
+        <v>17</v>
+      </c>
+      <c r="AH80" s="1">
+        <f>AA74</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>9</v>
       </c>
@@ -1776,8 +7319,56 @@
       <c r="C81" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V81" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A79,$M$2:$M$8,0),MATCH(B79,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W81" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A79,$M$2:$M$8,0),MATCH(B79,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X81" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A79,$M$2:$M$8,0),MATCH(B79,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y81" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A79,$M$2:$M$8,0),MATCH(B79,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z81" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A79,$M$2:$M$8,0),MATCH(B79,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA81" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A79,$M$2:$M$8,0),MATCH(B79,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC81" s="1">
+        <f>V75</f>
+        <v>14</v>
+      </c>
+      <c r="AD81" s="1">
+        <f>W75</f>
+        <v>10</v>
+      </c>
+      <c r="AE81" s="1">
+        <f>X75</f>
+        <v>6</v>
+      </c>
+      <c r="AF81" s="1">
+        <f>Y75</f>
+        <v>8</v>
+      </c>
+      <c r="AG81" s="1">
+        <f>Z75</f>
+        <v>17</v>
+      </c>
+      <c r="AH81" s="1">
+        <f>AA75</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>9</v>
       </c>
@@ -1787,8 +7378,56 @@
       <c r="C82" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V82" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A80,$M$2:$M$8,0),MATCH(B80,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W82" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A80,$M$2:$M$8,0),MATCH(B80,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X82" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A80,$M$2:$M$8,0),MATCH(B80,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y82" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A80,$M$2:$M$8,0),MATCH(B80,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z82" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A80,$M$2:$M$8,0),MATCH(B80,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA82" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A80,$M$2:$M$8,0),MATCH(B80,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC82" s="1">
+        <f>V76</f>
+        <v>13</v>
+      </c>
+      <c r="AD82" s="1">
+        <f>W76</f>
+        <v>9</v>
+      </c>
+      <c r="AE82" s="1">
+        <f>X76</f>
+        <v>5</v>
+      </c>
+      <c r="AF82" s="1">
+        <f>Y76</f>
+        <v>7</v>
+      </c>
+      <c r="AG82" s="1">
+        <f>Z76</f>
+        <v>16</v>
+      </c>
+      <c r="AH82" s="1">
+        <f>AA76</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>9</v>
       </c>
@@ -1798,8 +7437,56 @@
       <c r="C83" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V83" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A81,$M$2:$M$8,0),MATCH(B81,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W83" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A81,$M$2:$M$8,0),MATCH(B81,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X83" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A81,$M$2:$M$8,0),MATCH(B81,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y83" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A81,$M$2:$M$8,0),MATCH(B81,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z83" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A81,$M$2:$M$8,0),MATCH(B81,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA83" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A81,$M$2:$M$8,0),MATCH(B81,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC83" s="1">
+        <f>V77</f>
+        <v>13</v>
+      </c>
+      <c r="AD83" s="1">
+        <f>W77</f>
+        <v>9</v>
+      </c>
+      <c r="AE83" s="1">
+        <f>X77</f>
+        <v>5</v>
+      </c>
+      <c r="AF83" s="1">
+        <f>Y77</f>
+        <v>7</v>
+      </c>
+      <c r="AG83" s="1">
+        <f>Z77</f>
+        <v>16</v>
+      </c>
+      <c r="AH83" s="1">
+        <f>AA77</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
@@ -1809,8 +7496,56 @@
       <c r="C84" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V84" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A82,$M$2:$M$8,0),MATCH(B82,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W84" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A82,$M$2:$M$8,0),MATCH(B82,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X84" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A82,$M$2:$M$8,0),MATCH(B82,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y84" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A82,$M$2:$M$8,0),MATCH(B82,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z84" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A82,$M$2:$M$8,0),MATCH(B82,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA84" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A82,$M$2:$M$8,0),MATCH(B82,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC84" s="1">
+        <f>V78</f>
+        <v>13</v>
+      </c>
+      <c r="AD84" s="1">
+        <f>W78</f>
+        <v>9</v>
+      </c>
+      <c r="AE84" s="1">
+        <f>X78</f>
+        <v>5</v>
+      </c>
+      <c r="AF84" s="1">
+        <f>Y78</f>
+        <v>7</v>
+      </c>
+      <c r="AG84" s="1">
+        <f>Z78</f>
+        <v>16</v>
+      </c>
+      <c r="AH84" s="1">
+        <f>AA78</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>9</v>
       </c>
@@ -1820,8 +7555,56 @@
       <c r="C85" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V85" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A83,$M$2:$M$8,0),MATCH(B83,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W85" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A83,$M$2:$M$8,0),MATCH(B83,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X85" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A83,$M$2:$M$8,0),MATCH(B83,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y85" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A83,$M$2:$M$8,0),MATCH(B83,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z85" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A83,$M$2:$M$8,0),MATCH(B83,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA85" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A83,$M$2:$M$8,0),MATCH(B83,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC85" s="1">
+        <f>V79</f>
+        <v>13</v>
+      </c>
+      <c r="AD85" s="1">
+        <f>W79</f>
+        <v>9</v>
+      </c>
+      <c r="AE85" s="1">
+        <f>X79</f>
+        <v>5</v>
+      </c>
+      <c r="AF85" s="1">
+        <f>Y79</f>
+        <v>7</v>
+      </c>
+      <c r="AG85" s="1">
+        <f>Z79</f>
+        <v>16</v>
+      </c>
+      <c r="AH85" s="1">
+        <f>AA79</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -1831,8 +7614,56 @@
       <c r="C86" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V86" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A84,$M$2:$M$8,0),MATCH(B84,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W86" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A84,$M$2:$M$8,0),MATCH(B84,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X86" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A84,$M$2:$M$8,0),MATCH(B84,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y86" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A84,$M$2:$M$8,0),MATCH(B84,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z86" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A84,$M$2:$M$8,0),MATCH(B84,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA86" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A84,$M$2:$M$8,0),MATCH(B84,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC86" s="1">
+        <f>V80</f>
+        <v>13</v>
+      </c>
+      <c r="AD86" s="1">
+        <f>W80</f>
+        <v>9</v>
+      </c>
+      <c r="AE86" s="1">
+        <f>X80</f>
+        <v>5</v>
+      </c>
+      <c r="AF86" s="1">
+        <f>Y80</f>
+        <v>7</v>
+      </c>
+      <c r="AG86" s="1">
+        <f>Z80</f>
+        <v>16</v>
+      </c>
+      <c r="AH86" s="1">
+        <f>AA80</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
@@ -1842,8 +7673,56 @@
       <c r="C87" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V87" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A85,$M$2:$M$8,0),MATCH(B85,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W87" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A85,$M$2:$M$8,0),MATCH(B85,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X87" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A85,$M$2:$M$8,0),MATCH(B85,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y87" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A85,$M$2:$M$8,0),MATCH(B85,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z87" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A85,$M$2:$M$8,0),MATCH(B85,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA87" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A85,$M$2:$M$8,0),MATCH(B85,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC87" s="1">
+        <f>V81</f>
+        <v>13</v>
+      </c>
+      <c r="AD87" s="1">
+        <f>W81</f>
+        <v>9</v>
+      </c>
+      <c r="AE87" s="1">
+        <f>X81</f>
+        <v>5</v>
+      </c>
+      <c r="AF87" s="1">
+        <f>Y81</f>
+        <v>7</v>
+      </c>
+      <c r="AG87" s="1">
+        <f>Z81</f>
+        <v>16</v>
+      </c>
+      <c r="AH87" s="1">
+        <f>AA81</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>5</v>
       </c>
@@ -1853,8 +7732,56 @@
       <c r="C88" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V88" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A86,$M$2:$M$8,0),MATCH(B86,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W88" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A86,$M$2:$M$8,0),MATCH(B86,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X88" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A86,$M$2:$M$8,0),MATCH(B86,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y88" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A86,$M$2:$M$8,0),MATCH(B86,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z88" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A86,$M$2:$M$8,0),MATCH(B86,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA88" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A86,$M$2:$M$8,0),MATCH(B86,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC88" s="1">
+        <f>V82</f>
+        <v>13</v>
+      </c>
+      <c r="AD88" s="1">
+        <f>W82</f>
+        <v>9</v>
+      </c>
+      <c r="AE88" s="1">
+        <f>X82</f>
+        <v>5</v>
+      </c>
+      <c r="AF88" s="1">
+        <f>Y82</f>
+        <v>7</v>
+      </c>
+      <c r="AG88" s="1">
+        <f>Z82</f>
+        <v>16</v>
+      </c>
+      <c r="AH88" s="1">
+        <f>AA82</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>5</v>
       </c>
@@ -1864,8 +7791,56 @@
       <c r="C89" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V89" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A87,$M$2:$M$8,0),MATCH(B87,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W89" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A87,$M$2:$M$8,0),MATCH(B87,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X89" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A87,$M$2:$M$8,0),MATCH(B87,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y89" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A87,$M$2:$M$8,0),MATCH(B87,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z89" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A87,$M$2:$M$8,0),MATCH(B87,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA89" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A87,$M$2:$M$8,0),MATCH(B87,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC89" s="1">
+        <f>V83</f>
+        <v>13</v>
+      </c>
+      <c r="AD89" s="1">
+        <f>W83</f>
+        <v>9</v>
+      </c>
+      <c r="AE89" s="1">
+        <f>X83</f>
+        <v>5</v>
+      </c>
+      <c r="AF89" s="1">
+        <f>Y83</f>
+        <v>7</v>
+      </c>
+      <c r="AG89" s="1">
+        <f>Z83</f>
+        <v>16</v>
+      </c>
+      <c r="AH89" s="1">
+        <f>AA83</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>8</v>
       </c>
@@ -1875,8 +7850,56 @@
       <c r="C90" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V90" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A88,$M$2:$M$8,0),MATCH(B88,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W90" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A88,$M$2:$M$8,0),MATCH(B88,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X90" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A88,$M$2:$M$8,0),MATCH(B88,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y90" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A88,$M$2:$M$8,0),MATCH(B88,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z90" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A88,$M$2:$M$8,0),MATCH(B88,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA90" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A88,$M$2:$M$8,0),MATCH(B88,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC90" s="1">
+        <f>V84</f>
+        <v>13</v>
+      </c>
+      <c r="AD90" s="1">
+        <f>W84</f>
+        <v>9</v>
+      </c>
+      <c r="AE90" s="1">
+        <f>X84</f>
+        <v>5</v>
+      </c>
+      <c r="AF90" s="1">
+        <f>Y84</f>
+        <v>7</v>
+      </c>
+      <c r="AG90" s="1">
+        <f>Z84</f>
+        <v>16</v>
+      </c>
+      <c r="AH90" s="1">
+        <f>AA84</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>8</v>
       </c>
@@ -1886,8 +7909,56 @@
       <c r="C91" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V91" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A89,$M$2:$M$8,0),MATCH(B89,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W91" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A89,$M$2:$M$8,0),MATCH(B89,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X91" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A89,$M$2:$M$8,0),MATCH(B89,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y91" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A89,$M$2:$M$8,0),MATCH(B89,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z91" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A89,$M$2:$M$8,0),MATCH(B89,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA91" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A89,$M$2:$M$8,0),MATCH(B89,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC91" s="1">
+        <f>V85</f>
+        <v>13</v>
+      </c>
+      <c r="AD91" s="1">
+        <f>W85</f>
+        <v>9</v>
+      </c>
+      <c r="AE91" s="1">
+        <f>X85</f>
+        <v>5</v>
+      </c>
+      <c r="AF91" s="1">
+        <f>Y85</f>
+        <v>7</v>
+      </c>
+      <c r="AG91" s="1">
+        <f>Z85</f>
+        <v>16</v>
+      </c>
+      <c r="AH91" s="1">
+        <f>AA85</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>8</v>
       </c>
@@ -1897,8 +7968,56 @@
       <c r="C92" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V92" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A90,$M$2:$M$8,0),MATCH(B90,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W92" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A90,$M$2:$M$8,0),MATCH(B90,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X92" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A90,$M$2:$M$8,0),MATCH(B90,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y92" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A90,$M$2:$M$8,0),MATCH(B90,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z92" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A90,$M$2:$M$8,0),MATCH(B90,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA92" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A90,$M$2:$M$8,0),MATCH(B90,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC92" s="1">
+        <f>V86</f>
+        <v>13</v>
+      </c>
+      <c r="AD92" s="1">
+        <f>W86</f>
+        <v>9</v>
+      </c>
+      <c r="AE92" s="1">
+        <f>X86</f>
+        <v>5</v>
+      </c>
+      <c r="AF92" s="1">
+        <f>Y86</f>
+        <v>7</v>
+      </c>
+      <c r="AG92" s="1">
+        <f>Z86</f>
+        <v>16</v>
+      </c>
+      <c r="AH92" s="1">
+        <f>AA86</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +8027,56 @@
       <c r="C93" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V93" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A91,$M$2:$M$8,0),MATCH(B91,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W93" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A91,$M$2:$M$8,0),MATCH(B91,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X93" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A91,$M$2:$M$8,0),MATCH(B91,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y93" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A91,$M$2:$M$8,0),MATCH(B91,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z93" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A91,$M$2:$M$8,0),MATCH(B91,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA93" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A91,$M$2:$M$8,0),MATCH(B91,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC93" s="1">
+        <f>V87</f>
+        <v>13</v>
+      </c>
+      <c r="AD93" s="1">
+        <f>W87</f>
+        <v>9</v>
+      </c>
+      <c r="AE93" s="1">
+        <f>X87</f>
+        <v>5</v>
+      </c>
+      <c r="AF93" s="1">
+        <f>Y87</f>
+        <v>7</v>
+      </c>
+      <c r="AG93" s="1">
+        <f>Z87</f>
+        <v>16</v>
+      </c>
+      <c r="AH93" s="1">
+        <f>AA87</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>5</v>
       </c>
@@ -1919,8 +8086,56 @@
       <c r="C94" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V94" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A92,$M$2:$M$8,0),MATCH(B92,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W94" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A92,$M$2:$M$8,0),MATCH(B92,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X94" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A92,$M$2:$M$8,0),MATCH(B92,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y94" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A92,$M$2:$M$8,0),MATCH(B92,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z94" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A92,$M$2:$M$8,0),MATCH(B92,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA94" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A92,$M$2:$M$8,0),MATCH(B92,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC94" s="1">
+        <f>V88</f>
+        <v>13</v>
+      </c>
+      <c r="AD94" s="1">
+        <f>W88</f>
+        <v>9</v>
+      </c>
+      <c r="AE94" s="1">
+        <f>X88</f>
+        <v>5</v>
+      </c>
+      <c r="AF94" s="1">
+        <f>Y88</f>
+        <v>7</v>
+      </c>
+      <c r="AG94" s="1">
+        <f>Z88</f>
+        <v>16</v>
+      </c>
+      <c r="AH94" s="1">
+        <f>AA88</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>5</v>
       </c>
@@ -1930,8 +8145,56 @@
       <c r="C95" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="V95" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A93,$M$2:$M$8,0),MATCH(B93,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W95" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A93,$M$2:$M$8,0),MATCH(B93,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X95" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A93,$M$2:$M$8,0),MATCH(B93,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y95" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A93,$M$2:$M$8,0),MATCH(B93,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z95" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A93,$M$2:$M$8,0),MATCH(B93,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA95" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A93,$M$2:$M$8,0),MATCH(B93,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC95" s="1">
+        <f>V89</f>
+        <v>13</v>
+      </c>
+      <c r="AD95" s="1">
+        <f>W89</f>
+        <v>9</v>
+      </c>
+      <c r="AE95" s="1">
+        <f>X89</f>
+        <v>5</v>
+      </c>
+      <c r="AF95" s="1">
+        <f>Y89</f>
+        <v>7</v>
+      </c>
+      <c r="AG95" s="1">
+        <f>Z89</f>
+        <v>16</v>
+      </c>
+      <c r="AH95" s="1">
+        <f>AA89</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -1941,8 +8204,56 @@
       <c r="C96" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="V96" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A94,$M$2:$M$8,0),MATCH(B94,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W96" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A94,$M$2:$M$8,0),MATCH(B94,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X96" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A94,$M$2:$M$8,0),MATCH(B94,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y96" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A94,$M$2:$M$8,0),MATCH(B94,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z96" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A94,$M$2:$M$8,0),MATCH(B94,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA96" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A94,$M$2:$M$8,0),MATCH(B94,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC96" s="1">
+        <f>V90</f>
+        <v>13</v>
+      </c>
+      <c r="AD96" s="1">
+        <f>W90</f>
+        <v>9</v>
+      </c>
+      <c r="AE96" s="1">
+        <f>X90</f>
+        <v>5</v>
+      </c>
+      <c r="AF96" s="1">
+        <f>Y90</f>
+        <v>7</v>
+      </c>
+      <c r="AG96" s="1">
+        <f>Z90</f>
+        <v>16</v>
+      </c>
+      <c r="AH96" s="1">
+        <f>AA90</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>5</v>
       </c>
@@ -1952,8 +8263,56 @@
       <c r="C97" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="V97" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A95,$M$2:$M$8,0),MATCH(B95,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W97" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A95,$M$2:$M$8,0),MATCH(B95,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X97" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A95,$M$2:$M$8,0),MATCH(B95,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y97" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A95,$M$2:$M$8,0),MATCH(B95,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z97" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A95,$M$2:$M$8,0),MATCH(B95,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA97" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A95,$M$2:$M$8,0),MATCH(B95,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC97" s="1">
+        <f>V91</f>
+        <v>13</v>
+      </c>
+      <c r="AD97" s="1">
+        <f>W91</f>
+        <v>9</v>
+      </c>
+      <c r="AE97" s="1">
+        <f>X91</f>
+        <v>5</v>
+      </c>
+      <c r="AF97" s="1">
+        <f>Y91</f>
+        <v>7</v>
+      </c>
+      <c r="AG97" s="1">
+        <f>Z91</f>
+        <v>16</v>
+      </c>
+      <c r="AH97" s="1">
+        <f>AA91</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,8 +8322,56 @@
       <c r="C98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="V98" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A96,$M$2:$M$8,0),MATCH(B96,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W98" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A96,$M$2:$M$8,0),MATCH(B96,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X98" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A96,$M$2:$M$8,0),MATCH(B96,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y98" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A96,$M$2:$M$8,0),MATCH(B96,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z98" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A96,$M$2:$M$8,0),MATCH(B96,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA98" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A96,$M$2:$M$8,0),MATCH(B96,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC98" s="1">
+        <f>V92</f>
+        <v>13</v>
+      </c>
+      <c r="AD98" s="1">
+        <f>W92</f>
+        <v>9</v>
+      </c>
+      <c r="AE98" s="1">
+        <f>X92</f>
+        <v>5</v>
+      </c>
+      <c r="AF98" s="1">
+        <f>Y92</f>
+        <v>7</v>
+      </c>
+      <c r="AG98" s="1">
+        <f>Z92</f>
+        <v>16</v>
+      </c>
+      <c r="AH98" s="1">
+        <f>AA92</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>3</v>
       </c>
@@ -1974,8 +8381,56 @@
       <c r="C99" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="V99" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A97,$M$2:$M$8,0),MATCH(B97,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W99" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A97,$M$2:$M$8,0),MATCH(B97,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X99" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A97,$M$2:$M$8,0),MATCH(B97,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y99" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A97,$M$2:$M$8,0),MATCH(B97,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z99" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A97,$M$2:$M$8,0),MATCH(B97,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA99" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A97,$M$2:$M$8,0),MATCH(B97,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC99" s="1">
+        <f>V93</f>
+        <v>13</v>
+      </c>
+      <c r="AD99" s="1">
+        <f>W93</f>
+        <v>9</v>
+      </c>
+      <c r="AE99" s="1">
+        <f>X93</f>
+        <v>5</v>
+      </c>
+      <c r="AF99" s="1">
+        <f>Y93</f>
+        <v>7</v>
+      </c>
+      <c r="AG99" s="1">
+        <f>Z93</f>
+        <v>16</v>
+      </c>
+      <c r="AH99" s="1">
+        <f>AA93</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +8440,56 @@
       <c r="C100" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="V100" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A98,$M$2:$M$8,0),MATCH(B98,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W100" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A98,$M$2:$M$8,0),MATCH(B98,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X100" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A98,$M$2:$M$8,0),MATCH(B98,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y100" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A98,$M$2:$M$8,0),MATCH(B98,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z100" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A98,$M$2:$M$8,0),MATCH(B98,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA100" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A98,$M$2:$M$8,0),MATCH(B98,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC100" s="1">
+        <f>V94</f>
+        <v>13</v>
+      </c>
+      <c r="AD100" s="1">
+        <f>W94</f>
+        <v>9</v>
+      </c>
+      <c r="AE100" s="1">
+        <f>X94</f>
+        <v>5</v>
+      </c>
+      <c r="AF100" s="1">
+        <f>Y94</f>
+        <v>7</v>
+      </c>
+      <c r="AG100" s="1">
+        <f>Z94</f>
+        <v>16</v>
+      </c>
+      <c r="AH100" s="1">
+        <f>AA94</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,18 +8498,216 @@
       </c>
       <c r="C101" s="1">
         <f ca="1">RANDBETWEEN(1,24)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="V101" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A99,$M$2:$M$8,0),MATCH(B99,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W101" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A99,$M$2:$M$8,0),MATCH(B99,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X101" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A99,$M$2:$M$8,0),MATCH(B99,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y101" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A99,$M$2:$M$8,0),MATCH(B99,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z101" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A99,$M$2:$M$8,0),MATCH(B99,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA101" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A99,$M$2:$M$8,0),MATCH(B99,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC101" s="1">
+        <f>V95</f>
+        <v>13</v>
+      </c>
+      <c r="AD101" s="1">
+        <f>W95</f>
+        <v>9</v>
+      </c>
+      <c r="AE101" s="1">
+        <f>X95</f>
+        <v>5</v>
+      </c>
+      <c r="AF101" s="1">
+        <f>Y95</f>
+        <v>7</v>
+      </c>
+      <c r="AG101" s="1">
+        <f>Z95</f>
+        <v>16</v>
+      </c>
+      <c r="AH101" s="1">
+        <f>AA95</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V102" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A100,$M$2:$M$8,0),MATCH(B100,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W102" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A100,$M$2:$M$8,0),MATCH(B100,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X102" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A100,$M$2:$M$8,0),MATCH(B100,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y102" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A100,$M$2:$M$8,0),MATCH(B100,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z102" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A100,$M$2:$M$8,0),MATCH(B100,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA102" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A100,$M$2:$M$8,0),MATCH(B100,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC102" s="1">
+        <f>V96</f>
+        <v>13</v>
+      </c>
+      <c r="AD102" s="1">
+        <f>W96</f>
+        <v>9</v>
+      </c>
+      <c r="AE102" s="1">
+        <f>X96</f>
+        <v>5</v>
+      </c>
+      <c r="AF102" s="1">
+        <f>Y96</f>
+        <v>7</v>
+      </c>
+      <c r="AG102" s="1">
+        <f>Z96</f>
+        <v>16</v>
+      </c>
+      <c r="AH102" s="1">
+        <f>AA96</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V103" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A101,$M$2:$M$8,0),MATCH(B101,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($V$2,$N$16:$S$16,0))</f>
+        <v>13</v>
+      </c>
+      <c r="W103" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A101,$M$2:$M$8,0),MATCH(B101,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($W$2,$N$16:$S$16,0))</f>
+        <v>9</v>
+      </c>
+      <c r="X103" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A101,$M$2:$M$8,0),MATCH(B101,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($X$2,$N$16:$S$16,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Y103" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A101,$M$2:$M$8,0),MATCH(B101,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Y$2,$N$16:$S$16,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Z103" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A101,$M$2:$M$8,0),MATCH(B101,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($Z$2,$N$16:$S$16,0))</f>
+        <v>16</v>
+      </c>
+      <c r="AA103" s="1">
+        <f>INDEX($N$2:$T$8,MATCH(A101,$M$2:$M$8,0),MATCH(B101,$N$1:$T$1,0)) + INDEX($N$17:$S$17,1,MATCH($AA$2,$N$16:$S$16,0))</f>
+        <v>8</v>
+      </c>
+      <c r="AC103" s="1">
+        <f>V97</f>
+        <v>13</v>
+      </c>
+      <c r="AD103" s="1">
+        <f>W97</f>
+        <v>9</v>
+      </c>
+      <c r="AE103" s="1">
+        <f>X97</f>
+        <v>5</v>
+      </c>
+      <c r="AF103" s="1">
+        <f>Y97</f>
+        <v>7</v>
+      </c>
+      <c r="AG103" s="1">
+        <f>Z97</f>
+        <v>16</v>
+      </c>
+      <c r="AH103" s="1">
+        <f>AA97</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC104" s="1">
+        <f>V98</f>
+        <v>13</v>
+      </c>
+      <c r="AD104" s="1">
+        <f>W98</f>
+        <v>9</v>
+      </c>
+      <c r="AE104" s="1">
+        <f>X98</f>
+        <v>5</v>
+      </c>
+      <c r="AF104" s="1">
+        <f>Y98</f>
+        <v>7</v>
+      </c>
+      <c r="AG104" s="1">
+        <f>Z98</f>
+        <v>16</v>
+      </c>
+      <c r="AH104" s="1">
+        <f>AA98</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AC105" s="1">
+        <f>V99</f>
+        <v>13</v>
+      </c>
+      <c r="AD105" s="1">
+        <f>W99</f>
+        <v>9</v>
+      </c>
+      <c r="AE105" s="1">
+        <f>X99</f>
+        <v>5</v>
+      </c>
+      <c r="AF105" s="1">
+        <f>Y99</f>
+        <v>7</v>
+      </c>
+      <c r="AG105" s="1">
+        <f>Z99</f>
+        <v>16</v>
+      </c>
+      <c r="AH105" s="1">
+        <f>AA99</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
         <v>17</v>
       </c>
@@ -2019,8 +8720,32 @@
       <c r="E106" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AC106" s="1">
+        <f>V100</f>
+        <v>13</v>
+      </c>
+      <c r="AD106" s="1">
+        <f>W100</f>
+        <v>9</v>
+      </c>
+      <c r="AE106" s="1">
+        <f>X100</f>
+        <v>5</v>
+      </c>
+      <c r="AF106" s="1">
+        <f>Y100</f>
+        <v>7</v>
+      </c>
+      <c r="AG106" s="1">
+        <f>Z100</f>
+        <v>16</v>
+      </c>
+      <c r="AH106" s="1">
+        <f>AA100</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>10</v>
       </c>
@@ -2034,8 +8759,32 @@
         <f>INDEX($N$2:$T$8,MATCH(C107,$M$2:$M$8,0),MATCH(D107,$N$1:$T$1,0)) + INDEX($N$13:$S$13,1,MATCH(B107,$N$12:$S$12,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AC107" s="1">
+        <f>V101</f>
+        <v>13</v>
+      </c>
+      <c r="AD107" s="1">
+        <f>W101</f>
+        <v>9</v>
+      </c>
+      <c r="AE107" s="1">
+        <f>X101</f>
+        <v>5</v>
+      </c>
+      <c r="AF107" s="1">
+        <f>Y101</f>
+        <v>7</v>
+      </c>
+      <c r="AG107" s="1">
+        <f>Z101</f>
+        <v>16</v>
+      </c>
+      <c r="AH107" s="1">
+        <f>AA101</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>10</v>
       </c>
@@ -2049,8 +8798,32 @@
         <f t="shared" ref="E108:E171" si="0">INDEX($N$2:$T$8,MATCH(C108,$M$2:$M$8,0),MATCH(D108,$N$1:$T$1,0)) + INDEX($N$13:$S$13,1,MATCH(B108,$N$12:$S$12,0))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AC108" s="1">
+        <f>V102</f>
+        <v>13</v>
+      </c>
+      <c r="AD108" s="1">
+        <f>W102</f>
+        <v>9</v>
+      </c>
+      <c r="AE108" s="1">
+        <f>X102</f>
+        <v>5</v>
+      </c>
+      <c r="AF108" s="1">
+        <f>Y102</f>
+        <v>7</v>
+      </c>
+      <c r="AG108" s="1">
+        <f>Z102</f>
+        <v>16</v>
+      </c>
+      <c r="AH108" s="1">
+        <f>AA102</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
@@ -2064,8 +8837,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="AC109" s="1">
+        <f>V103</f>
+        <v>13</v>
+      </c>
+      <c r="AD109" s="1">
+        <f>W103</f>
+        <v>9</v>
+      </c>
+      <c r="AE109" s="1">
+        <f>X103</f>
+        <v>5</v>
+      </c>
+      <c r="AF109" s="1">
+        <f>Y103</f>
+        <v>7</v>
+      </c>
+      <c r="AG109" s="1">
+        <f>Z103</f>
+        <v>16</v>
+      </c>
+      <c r="AH109" s="1">
+        <f>AA103</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +8877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
@@ -2095,7 +8892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>10</v>
       </c>
@@ -3907,7 +10704,7 @@
       </c>
       <c r="E232" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.25">
@@ -3922,7 +10719,7 @@
       </c>
       <c r="E233" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.25">
@@ -3937,7 +10734,7 @@
       </c>
       <c r="E234" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.25">
@@ -3952,7 +10749,7 @@
       </c>
       <c r="E235" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.25">
@@ -3967,7 +10764,7 @@
       </c>
       <c r="E236" s="1">
         <f t="shared" ref="E236:E256" si="2">INDEX($N$2:$T$8,MATCH(C236,$M$2:$M$8,0),MATCH(D236,$N$1:$T$1,0)) + INDEX($N$13:$S$13,1,MATCH(B236,$N$12:$S$12,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.25">
@@ -3982,7 +10779,7 @@
       </c>
       <c r="E237" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.25">
@@ -3997,7 +10794,7 @@
       </c>
       <c r="E238" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.25">
@@ -4012,7 +10809,7 @@
       </c>
       <c r="E239" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.25">
@@ -4027,7 +10824,7 @@
       </c>
       <c r="E240" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.25">
@@ -4042,7 +10839,7 @@
       </c>
       <c r="E241" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.25">
@@ -4057,7 +10854,7 @@
       </c>
       <c r="E242" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.25">
@@ -4072,7 +10869,7 @@
       </c>
       <c r="E243" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.25">
@@ -4087,7 +10884,7 @@
       </c>
       <c r="E244" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.25">
@@ -4102,7 +10899,7 @@
       </c>
       <c r="E245" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
@@ -4117,7 +10914,7 @@
       </c>
       <c r="E246" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.25">
@@ -4132,7 +10929,7 @@
       </c>
       <c r="E247" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.25">
@@ -4147,7 +10944,7 @@
       </c>
       <c r="E248" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.25">
@@ -4162,7 +10959,7 @@
       </c>
       <c r="E249" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.25">
@@ -4177,7 +10974,7 @@
       </c>
       <c r="E250" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.25">
@@ -4192,7 +10989,7 @@
       </c>
       <c r="E251" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.25">
@@ -4207,7 +11004,7 @@
       </c>
       <c r="E252" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.25">
@@ -4222,7 +11019,7 @@
       </c>
       <c r="E253" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.25">
@@ -4237,7 +11034,7 @@
       </c>
       <c r="E254" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.25">
@@ -4252,7 +11049,7 @@
       </c>
       <c r="E255" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.25">
@@ -4267,7 +11064,7 @@
       </c>
       <c r="E256" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.25">
